--- a/src/test/resources/TestData/DryBar/DryBarTestData.xlsx
+++ b/src/test/resources/TestData/DryBar/DryBarTestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A4AA04-75C7-4E7C-9F20-1A1D215FD1AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CBEF07-B0F1-4949-889B-744A9B598A71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20580" windowHeight="8820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -661,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/TestData/DryBar/DryBarTestData.xlsx
+++ b/src/test/resources/TestData/DryBar/DryBarTestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CBEF07-B0F1-4949-889B-744A9B598A71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8879C3D-A154-417A-BE74-F4B8505A6416}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20580" windowHeight="8820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="95">
   <si>
     <t>UserName</t>
   </si>
@@ -149,9 +149,6 @@
   </si>
   <si>
     <t>Promationcode</t>
-  </si>
-  <si>
-    <t>h20</t>
   </si>
   <si>
     <t>Reviewtitle</t>
@@ -300,6 +297,21 @@
   </si>
   <si>
     <t>Rajkumar@1155</t>
+  </si>
+  <si>
+    <t>InvalidPaymentDetails</t>
+  </si>
+  <si>
+    <t>4444444444444449</t>
+  </si>
+  <si>
+    <t>HeaderLinks</t>
+  </si>
+  <si>
+    <t>HeaderNames</t>
+  </si>
+  <si>
+    <t>Hair Products,Tools,Benefit,Gifts &amp; Kits,New,How-To Inspo,Others</t>
   </si>
 </sst>
 </file>
@@ -659,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU14"/>
+  <dimension ref="A1:AU11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,7 +684,8 @@
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="32.28515625" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="32.28515625" customWidth="1"/>
     <col min="9" max="9" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="28.28515625" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
@@ -685,6 +698,7 @@
     <col min="19" max="19" width="17.28515625" customWidth="1"/>
     <col min="20" max="20" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="61.140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="27.28515625" customWidth="1"/>
     <col min="28" max="28" width="4" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="16.140625" bestFit="1" customWidth="1"/>
@@ -724,7 +738,7 @@
         <v>41</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>10</v>
@@ -757,21 +771,23 @@
         <v>18</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="V1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="W1" s="2"/>
+      <c r="W1" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
@@ -801,40 +817,40 @@
         <v>42</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AK1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AL1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AO1" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="AP1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AS1" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="AT1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AU1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.25">
@@ -842,10 +858,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -854,7 +870,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -868,7 +884,7 @@
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="1"/>
       <c r="F3" s="1"/>
@@ -883,7 +899,7 @@
       <c r="O3" s="1"/>
       <c r="U3" s="6"/>
       <c r="V3" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.25">
@@ -902,7 +918,7 @@
         <v>20</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O4" s="1">
         <v>2025</v>
@@ -918,7 +934,7 @@
     </row>
     <row r="5" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" t="s">
@@ -928,10 +944,10 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
         <v>74</v>
-      </c>
-      <c r="G5" t="s">
-        <v>75</v>
       </c>
       <c r="H5" t="s">
         <v>36</v>
@@ -956,19 +972,19 @@
     </row>
     <row r="6" spans="1:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" t="s">
         <v>77</v>
-      </c>
-      <c r="E6" t="s">
-        <v>78</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>19</v>
@@ -1004,27 +1020,27 @@
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" t="s">
         <v>80</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="R8" t="s">
+        <v>82</v>
+      </c>
+      <c r="S8" t="s">
         <v>83</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>84</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>85</v>
-      </c>
-      <c r="U8" t="s">
-        <v>86</v>
       </c>
       <c r="AC8" t="s">
         <v>25</v>
@@ -1047,7 +1063,7 @@
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -1068,64 +1084,77 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="AI10" t="s">
-        <v>43</v>
-      </c>
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" s="1">
+        <v>2025</v>
+      </c>
+      <c r="P10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q10">
+        <v>123</v>
+      </c>
+      <c r="U10" s="6"/>
+      <c r="V10" s="4"/>
     </row>
-    <row r="11" spans="1:47" s="8" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="W11" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="AJ11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AK11" s="8" t="s">
+      <c r="AN11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO11" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="AL11" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM11" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="AN11" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO11" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="AP11" s="8">
         <v>27</v>
       </c>
       <c r="AQ11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR11" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AR11" s="8" t="s">
+      <c r="AS11" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="AS11" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="AT11" s="8">
         <v>2</v>
       </c>
       <c r="AU11" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="3"/>
-      <c r="AB14" s="4">
-        <v>123</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/DryBar/DryBarTestData.xlsx
+++ b/src/test/resources/TestData/DryBar/DryBarTestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8879C3D-A154-417A-BE74-F4B8505A6416}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E5778A-3647-4C44-ABAD-BE32B3B752FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20580" windowHeight="8820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -242,9 +242,6 @@
     <t>ProductName</t>
   </si>
   <si>
-    <t>The Double Shot</t>
-  </si>
-  <si>
     <t>ShippingAddress</t>
   </si>
   <si>
@@ -312,6 +309,9 @@
   </si>
   <si>
     <t>Hair Products,Tools,Benefit,Gifts &amp; Kits,New,How-To Inspo,Others</t>
+  </si>
+  <si>
+    <t>Liquid Glass</t>
   </si>
 </sst>
 </file>
@@ -673,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,7 +786,7 @@
         <v>70</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
@@ -858,10 +858,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -870,7 +870,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -882,7 +882,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -898,8 +898,8 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="U3" s="6"/>
-      <c r="V3" s="4" t="s">
-        <v>71</v>
+      <c r="V3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.25">
@@ -918,7 +918,7 @@
         <v>20</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O4" s="1">
         <v>2025</v>
@@ -934,7 +934,7 @@
     </row>
     <row r="5" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" t="s">
@@ -944,10 +944,10 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
         <v>73</v>
-      </c>
-      <c r="G5" t="s">
-        <v>74</v>
       </c>
       <c r="H5" t="s">
         <v>36</v>
@@ -972,19 +972,19 @@
     </row>
     <row r="6" spans="1:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
         <v>76</v>
-      </c>
-      <c r="E6" t="s">
-        <v>77</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>19</v>
@@ -1020,27 +1020,27 @@
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
         <v>79</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="R8" t="s">
+        <v>81</v>
+      </c>
+      <c r="S8" t="s">
         <v>82</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>83</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>84</v>
-      </c>
-      <c r="U8" t="s">
-        <v>85</v>
       </c>
       <c r="AC8" t="s">
         <v>25</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" s="1"/>
       <c r="F10" s="1"/>
@@ -1099,7 +1099,7 @@
         <v>20</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O10" s="1">
         <v>2025</v>
@@ -1115,10 +1115,10 @@
     </row>
     <row r="11" spans="1:47" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W11" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ11" s="8" t="s">
         <v>47</v>

--- a/src/test/resources/TestData/DryBar/DryBarTestData.xlsx
+++ b/src/test/resources/TestData/DryBar/DryBarTestData.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E5778A-3647-4C44-ABAD-BE32B3B752FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EE3B6F-5231-4D39-89F5-C05F6A38C110}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20580" windowHeight="8820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="100">
   <si>
     <t>UserName</t>
   </si>
@@ -308,10 +308,25 @@
     <t>HeaderNames</t>
   </si>
   <si>
-    <t>Hair Products,Tools,Benefit,Gifts &amp; Kits,New,How-To Inspo,Others</t>
-  </si>
-  <si>
     <t>Liquid Glass</t>
+  </si>
+  <si>
+    <t>GiftCard</t>
+  </si>
+  <si>
+    <t>GiftCardCode</t>
+  </si>
+  <si>
+    <t>GiftCardPin</t>
+  </si>
+  <si>
+    <t>couponCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST4TEST  </t>
+  </si>
+  <si>
+    <t>Hair Products,Hair Tool,Benefit,Gifts &amp; Kits,New,How-To Inspo</t>
   </si>
 </sst>
 </file>
@@ -375,7 +390,6 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
@@ -390,6 +404,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -671,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU11"/>
+  <dimension ref="A1:AU13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,6 +717,8 @@
     <col min="22" max="22" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="61.140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="27.28515625" customWidth="1"/>
+    <col min="25" max="25" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="4" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -718,138 +737,144 @@
     <col min="47" max="47" width="35.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:47" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2" t="s">
+      <c r="X1" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AK1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AM1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AP1" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AQ1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AR1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AS1" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AT1" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AU1" s="10" t="s">
         <v>59</v>
       </c>
     </row>
@@ -897,9 +922,9 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="U3" s="6"/>
+      <c r="U3" s="5"/>
       <c r="V3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.25">
@@ -917,7 +942,7 @@
       <c r="M4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="9" t="s">
         <v>86</v>
       </c>
       <c r="O4" s="1">
@@ -929,8 +954,8 @@
       <c r="Q4">
         <v>123</v>
       </c>
-      <c r="U4" s="6"/>
-      <c r="V4" s="4"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="3"/>
     </row>
     <row r="5" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -964,9 +989,9 @@
       <c r="L5">
         <v>8500563032</v>
       </c>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="3"/>
-      <c r="AB5" s="4">
+      <c r="X5" s="4"/>
+      <c r="Y5" s="2"/>
+      <c r="AB5" s="3">
         <v>123</v>
       </c>
     </row>
@@ -1074,7 +1099,7 @@
       <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -1098,7 +1123,7 @@
       <c r="M10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="N10" s="9" t="s">
         <v>90</v>
       </c>
       <c r="O10" s="1">
@@ -1110,51 +1135,72 @@
       <c r="Q10">
         <v>123</v>
       </c>
-      <c r="U10" s="6"/>
-      <c r="V10" s="4"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="3"/>
+      <c r="Z10" s="7"/>
     </row>
-    <row r="11" spans="1:47" s="8" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:47" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="W11" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJ11" s="8" t="s">
+      <c r="W11" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z11"/>
+      <c r="AJ11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AK11" s="8" t="s">
+      <c r="AK11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AL11" s="9" t="s">
+      <c r="AL11" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AM11" s="8" t="s">
+      <c r="AM11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AN11" s="8" t="s">
+      <c r="AN11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AO11" s="8" t="s">
+      <c r="AO11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AP11" s="8">
+      <c r="AP11" s="7">
         <v>27</v>
       </c>
-      <c r="AQ11" s="8" t="s">
+      <c r="AQ11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AR11" s="8" t="s">
+      <c r="AR11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AS11" s="8" t="s">
+      <c r="AS11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AT11" s="8">
+      <c r="AT11" s="7">
         <v>2</v>
       </c>
-      <c r="AU11" s="8" t="s">
+      <c r="AU11" s="7" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="X12">
+        <v>123</v>
+      </c>
+      <c r="Y12">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/DryBar/DryBarTestData.xlsx
+++ b/src/test/resources/TestData/DryBar/DryBarTestData.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EE3B6F-5231-4D39-89F5-C05F6A38C110}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4770835A-E0AF-409C-808C-D8FB268A30AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20580" windowHeight="8820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -308,9 +308,6 @@
     <t>HeaderNames</t>
   </si>
   <si>
-    <t>Liquid Glass</t>
-  </si>
-  <si>
     <t>GiftCard</t>
   </si>
   <si>
@@ -327,6 +324,9 @@
   </si>
   <si>
     <t>Hair Products,Hair Tool,Benefit,Gifts &amp; Kits,New,How-To Inspo</t>
+  </si>
+  <si>
+    <t>Liquid Glass Smoothing Shampoo</t>
   </si>
 </sst>
 </file>
@@ -690,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,7 +714,7 @@
     <col min="18" max="18" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17.28515625" customWidth="1"/>
     <col min="20" max="20" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.85546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="61.140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="27.28515625" customWidth="1"/>
     <col min="25" max="25" width="11.140625" bestFit="1" customWidth="1"/>
@@ -808,13 +808,13 @@
         <v>92</v>
       </c>
       <c r="X1" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y1" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Z1" s="10" t="s">
         <v>96</v>
-      </c>
-      <c r="Z1" s="10" t="s">
-        <v>97</v>
       </c>
       <c r="AA1" s="10"/>
       <c r="AB1" s="10" t="s">
@@ -924,7 +924,7 @@
       <c r="O3" s="1"/>
       <c r="U3" s="5"/>
       <c r="V3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.25">
@@ -1144,7 +1144,7 @@
         <v>91</v>
       </c>
       <c r="W11" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z11"/>
       <c r="AJ11" s="7" t="s">
@@ -1186,7 +1186,7 @@
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X12">
         <v>123</v>
@@ -1197,10 +1197,10 @@
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z13" t="s">
         <v>97</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/DryBar/DryBarTestData.xlsx
+++ b/src/test/resources/TestData/DryBar/DryBarTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4770835A-E0AF-409C-808C-D8FB268A30AB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847FA963-A4E7-4E68-AA37-76E35B06C20A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20580" windowHeight="8820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20580" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="115">
   <si>
     <t>UserName</t>
   </si>
@@ -308,6 +308,9 @@
     <t>HeaderNames</t>
   </si>
   <si>
+    <t>Liquid Glass</t>
+  </si>
+  <si>
     <t>GiftCard</t>
   </si>
   <si>
@@ -323,10 +326,52 @@
     <t xml:space="preserve">TEST4TEST  </t>
   </si>
   <si>
-    <t>Hair Products,Hair Tool,Benefit,Gifts &amp; Kits,New,How-To Inspo</t>
-  </si>
-  <si>
-    <t>Liquid Glass Smoothing Shampoo</t>
+    <t>Threedigitproductname</t>
+  </si>
+  <si>
+    <t>Hai</t>
+  </si>
+  <si>
+    <t>Fourdigitproductname</t>
+  </si>
+  <si>
+    <t>Hair</t>
+  </si>
+  <si>
+    <t>Nameofproduct</t>
+  </si>
+  <si>
+    <t>Hair Products</t>
+  </si>
+  <si>
+    <t>dublicateproductname</t>
+  </si>
+  <si>
+    <t>color care</t>
+  </si>
+  <si>
+    <t>invalidname</t>
+  </si>
+  <si>
+    <t>ppp</t>
+  </si>
+  <si>
+    <t>Pname</t>
+  </si>
+  <si>
+    <t>Shampoos</t>
+  </si>
+  <si>
+    <t>Hair Products,Hair Tools,Benefits,Gifts &amp; Kits,New,How To &amp; Inspo</t>
+  </si>
+  <si>
+    <t>0123</t>
+  </si>
+  <si>
+    <t>vicksproductname</t>
+  </si>
+  <si>
+    <t>humidifiers</t>
   </si>
 </sst>
 </file>
@@ -387,7 +432,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -407,6 +452,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -688,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU13"/>
+  <dimension ref="A1:BB13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,10 +757,10 @@
     <col min="15" max="15" width="18.28515625" customWidth="1"/>
     <col min="16" max="16" width="16.140625" customWidth="1"/>
     <col min="17" max="17" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.28515625" customWidth="1"/>
+    <col min="18" max="18" width="19.140625" customWidth="1"/>
+    <col min="19" max="19" width="26.42578125" customWidth="1"/>
     <col min="20" max="20" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="61.140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="27.28515625" customWidth="1"/>
     <col min="25" max="25" width="11.140625" bestFit="1" customWidth="1"/>
@@ -735,9 +781,16 @@
     <col min="45" max="45" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="27.28515625" customWidth="1"/>
+    <col min="49" max="49" width="24" customWidth="1"/>
+    <col min="50" max="50" width="17.5703125" customWidth="1"/>
+    <col min="51" max="51" width="21.140625" customWidth="1"/>
+    <col min="52" max="52" width="13.28515625" customWidth="1"/>
+    <col min="53" max="53" width="10.5703125" customWidth="1"/>
+    <col min="54" max="54" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
@@ -808,13 +861,13 @@
         <v>92</v>
       </c>
       <c r="X1" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y1" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Z1" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AA1" s="10"/>
       <c r="AB1" s="10" t="s">
@@ -877,8 +930,29 @@
       <c r="AU1" s="10" t="s">
         <v>59</v>
       </c>
+      <c r="AV1" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW1" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX1" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY1" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ1" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="BA1" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB1" s="10" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -907,7 +981,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -924,10 +998,31 @@
       <c r="O3" s="1"/>
       <c r="U3" s="5"/>
       <c r="V3" t="s">
-        <v>99</v>
+        <v>93</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>108</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -957,7 +1052,7 @@
       <c r="U4" s="5"/>
       <c r="V4" s="3"/>
     </row>
-    <row r="5" spans="1:47" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -995,7 +1090,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:47" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -1027,7 +1122,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -1043,7 +1138,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -1086,7 +1181,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>85</v>
       </c>
@@ -1108,7 +1203,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>89</v>
       </c>
@@ -1139,12 +1234,12 @@
       <c r="V10" s="3"/>
       <c r="Z10" s="7"/>
     </row>
-    <row r="11" spans="1:47" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>91</v>
       </c>
       <c r="W11" s="7" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="Z11"/>
       <c r="AJ11" s="7" t="s">
@@ -1184,23 +1279,23 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>93</v>
-      </c>
-      <c r="X12">
-        <v>123</v>
-      </c>
-      <c r="Y12">
-        <v>123</v>
+        <v>94</v>
+      </c>
+      <c r="X12" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y12" s="11" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Z13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/DryBar/DryBarTestData.xlsx
+++ b/src/test/resources/TestData/DryBar/DryBarTestData.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847FA963-A4E7-4E68-AA37-76E35B06C20A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15282B22-B88A-40CC-8BA8-6414924F725C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20580" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="132">
   <si>
     <t>UserName</t>
   </si>
@@ -368,10 +368,61 @@
     <t>0123</t>
   </si>
   <si>
-    <t>vicksproductname</t>
-  </si>
-  <si>
-    <t>humidifiers</t>
+    <t>TESTING_QA</t>
+  </si>
+  <si>
+    <t>OutProductName</t>
+  </si>
+  <si>
+    <t>MasterCard</t>
+  </si>
+  <si>
+    <t>mastercardnumber</t>
+  </si>
+  <si>
+    <t>5111005111051128</t>
+  </si>
+  <si>
+    <t>cardType2</t>
+  </si>
+  <si>
+    <t>Amexcard</t>
+  </si>
+  <si>
+    <t>AMEX</t>
+  </si>
+  <si>
+    <t>Amexcardnumber</t>
+  </si>
+  <si>
+    <t>371144371144376</t>
+  </si>
+  <si>
+    <t>Discovercard</t>
+  </si>
+  <si>
+    <t>Discover</t>
+  </si>
+  <si>
+    <t>Discovercardnumber</t>
+  </si>
+  <si>
+    <t>amexcvv</t>
+  </si>
+  <si>
+    <t>6011016011016011</t>
+  </si>
+  <si>
+    <t>ProductReview</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>The product is very Good</t>
+  </si>
+  <si>
+    <t>Nice Product. The Liquid glass smoothening shampoo is a lightweight, compact tool with all the power of a full-sized dryer, adorned in a chic, amethyst hue.</t>
   </si>
 </sst>
 </file>
@@ -432,7 +483,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -453,6 +504,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -734,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BB13"/>
+  <dimension ref="A1:BK14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="BC5" workbookViewId="0">
+      <selection activeCell="BJ15" sqref="BJ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,44 +808,49 @@
     <col min="10" max="11" width="28.28515625" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" customWidth="1"/>
-    <col min="16" max="16" width="16.140625" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.140625" customWidth="1"/>
-    <col min="19" max="19" width="26.42578125" customWidth="1"/>
-    <col min="20" max="20" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="61.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.28515625" customWidth="1"/>
-    <col min="25" max="25" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.7109375" customWidth="1"/>
-    <col min="37" max="37" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="21.140625" customWidth="1"/>
-    <col min="39" max="39" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="27.28515625" customWidth="1"/>
-    <col min="49" max="49" width="24" customWidth="1"/>
-    <col min="50" max="50" width="17.5703125" customWidth="1"/>
-    <col min="51" max="51" width="21.140625" customWidth="1"/>
-    <col min="52" max="52" width="13.28515625" customWidth="1"/>
-    <col min="53" max="53" width="10.5703125" customWidth="1"/>
-    <col min="54" max="54" width="17.5703125" customWidth="1"/>
+    <col min="14" max="16" width="34.140625" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" customWidth="1"/>
+    <col min="18" max="20" width="17.42578125" customWidth="1"/>
+    <col min="21" max="21" width="18.28515625" customWidth="1"/>
+    <col min="22" max="22" width="16.140625" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" customWidth="1"/>
+    <col min="25" max="25" width="19.140625" customWidth="1"/>
+    <col min="26" max="26" width="26.42578125" customWidth="1"/>
+    <col min="27" max="27" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="27.28515625" customWidth="1"/>
+    <col min="32" max="32" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="14.7109375" customWidth="1"/>
+    <col min="44" max="44" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="21.140625" customWidth="1"/>
+    <col min="46" max="46" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="27.28515625" customWidth="1"/>
+    <col min="56" max="56" width="24" customWidth="1"/>
+    <col min="57" max="57" width="17.5703125" customWidth="1"/>
+    <col min="58" max="58" width="21.140625" customWidth="1"/>
+    <col min="59" max="59" width="13.28515625" customWidth="1"/>
+    <col min="60" max="60" width="10.5703125" customWidth="1"/>
+    <col min="61" max="61" width="17.5703125" customWidth="1"/>
+    <col min="62" max="62" width="29.42578125" customWidth="1"/>
+    <col min="63" max="63" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
@@ -831,128 +891,155 @@
         <v>14</v>
       </c>
       <c r="N1" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="R1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="S1" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="U1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="W1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="X1" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y1" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="Z1" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="AA1" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="AB1" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="AC1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="AD1" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="AE1" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="AF1" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="AG1" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10" t="s">
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AK1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AL1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AM1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AN1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AO1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AP1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="AJ1" s="10" t="s">
+      <c r="AQ1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AK1" s="10" t="s">
+      <c r="AR1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AL1" s="10" t="s">
+      <c r="AS1" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="AM1" s="10" t="s">
+      <c r="AT1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="AN1" s="10" t="s">
+      <c r="AU1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="AO1" s="10" t="s">
+      <c r="AV1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AP1" s="10" t="s">
+      <c r="AW1" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="AQ1" s="10" t="s">
+      <c r="AX1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AR1" s="10" t="s">
+      <c r="AY1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="AS1" s="10" t="s">
+      <c r="AZ1" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AT1" s="10" t="s">
+      <c r="BA1" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="AU1" s="10" t="s">
+      <c r="BB1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="AV1" s="10" t="s">
+      <c r="BC1" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="AW1" s="10" t="s">
+      <c r="BD1" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="AX1" s="10" t="s">
+      <c r="BE1" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="AY1" s="10" t="s">
+      <c r="BF1" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="AZ1" s="10" t="s">
+      <c r="BG1" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="BA1" s="10" t="s">
+      <c r="BH1" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="BB1" s="10" t="s">
-        <v>113</v>
+      <c r="BI1" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="BJ1" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="BK1" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -980,8 +1067,14 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -996,33 +1089,39 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="U3" s="5"/>
-      <c r="V3" t="s">
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" t="s">
         <v>93</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="BC3" t="s">
         <v>100</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="BD3" t="s">
         <v>102</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="BE3" t="s">
         <v>104</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="BF3" t="s">
         <v>106</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BG3" t="s">
         <v>108</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BH3" t="s">
         <v>110</v>
       </c>
-      <c r="BB3" t="s">
-        <v>114</v>
+      <c r="BI3" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1037,22 +1136,43 @@
       <c r="M4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="R4" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="O4" s="1">
+      <c r="S4" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="U4" s="1">
         <v>2025</v>
       </c>
-      <c r="P4" t="s">
+      <c r="V4" t="s">
         <v>23</v>
       </c>
-      <c r="Q4">
+      <c r="W4">
         <v>123</v>
       </c>
-      <c r="U4" s="5"/>
-      <c r="V4" s="3"/>
+      <c r="X4">
+        <v>1234</v>
+      </c>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="3"/>
     </row>
-    <row r="5" spans="1:54" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -1084,13 +1204,13 @@
       <c r="L5">
         <v>8500563032</v>
       </c>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="2"/>
-      <c r="AB5" s="3">
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="2"/>
+      <c r="AI5" s="3">
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:54" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -1121,8 +1241,14 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -1138,7 +1264,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -1150,38 +1276,38 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="R8" t="s">
+      <c r="Y8" t="s">
         <v>81</v>
       </c>
-      <c r="S8" t="s">
+      <c r="Z8" t="s">
         <v>82</v>
       </c>
-      <c r="T8" t="s">
+      <c r="AA8" t="s">
         <v>83</v>
       </c>
-      <c r="U8" t="s">
+      <c r="AB8" t="s">
         <v>84</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AJ8" t="s">
         <v>25</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AK8" t="s">
         <v>27</v>
       </c>
-      <c r="AE8">
+      <c r="AL8">
         <v>123456</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AM8" t="s">
         <v>30</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AN8" t="s">
         <v>32</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AO8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>85</v>
       </c>
@@ -1203,7 +1329,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>89</v>
       </c>
@@ -1218,84 +1344,101 @@
       <c r="M10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="O10" s="1">
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="1">
         <v>2025</v>
       </c>
-      <c r="P10" t="s">
+      <c r="V10" t="s">
         <v>23</v>
       </c>
-      <c r="Q10">
+      <c r="W10">
         <v>123</v>
       </c>
-      <c r="U10" s="5"/>
-      <c r="V10" s="3"/>
-      <c r="Z10" s="7"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="3"/>
+      <c r="AG10" s="7"/>
     </row>
-    <row r="11" spans="1:54" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:63" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="W11" s="7" t="s">
+      <c r="AD11" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="Z11"/>
-      <c r="AJ11" s="7" t="s">
+      <c r="AG11"/>
+      <c r="AQ11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AK11" s="7" t="s">
+      <c r="AR11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AL11" s="8" t="s">
+      <c r="AS11" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AM11" s="7" t="s">
+      <c r="AT11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="AN11" s="7" t="s">
+      <c r="AU11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AO11" s="7" t="s">
+      <c r="AV11" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AP11" s="7">
+      <c r="AW11" s="7">
         <v>27</v>
       </c>
-      <c r="AQ11" s="7" t="s">
+      <c r="AX11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AR11" s="7" t="s">
+      <c r="AY11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AS11" s="7" t="s">
+      <c r="AZ11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AT11" s="7">
+      <c r="BA11" s="7">
         <v>2</v>
       </c>
-      <c r="AU11" s="7" t="s">
+      <c r="BB11" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>94</v>
       </c>
-      <c r="X12" s="11" t="s">
+      <c r="AE12" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="Y12" s="11" t="s">
+      <c r="AF12" s="11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>97</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AG13" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:63" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>128</v>
+      </c>
+      <c r="BJ14" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/DryBar/DryBarTestData.xlsx
+++ b/src/test/resources/TestData/DryBar/DryBarTestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15282B22-B88A-40CC-8BA8-6414924F725C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAFFBAD-832C-44F7-96CC-112ABEF6554D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20580" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="132">
   <si>
     <t>UserName</t>
   </si>
@@ -308,121 +308,121 @@
     <t>HeaderNames</t>
   </si>
   <si>
+    <t>GiftCard</t>
+  </si>
+  <si>
+    <t>GiftCardCode</t>
+  </si>
+  <si>
+    <t>GiftCardPin</t>
+  </si>
+  <si>
+    <t>couponCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST4TEST  </t>
+  </si>
+  <si>
+    <t>Threedigitproductname</t>
+  </si>
+  <si>
+    <t>Hai</t>
+  </si>
+  <si>
+    <t>Fourdigitproductname</t>
+  </si>
+  <si>
+    <t>Hair</t>
+  </si>
+  <si>
+    <t>Nameofproduct</t>
+  </si>
+  <si>
+    <t>Hair Products</t>
+  </si>
+  <si>
+    <t>dublicateproductname</t>
+  </si>
+  <si>
+    <t>color care</t>
+  </si>
+  <si>
+    <t>invalidname</t>
+  </si>
+  <si>
+    <t>ppp</t>
+  </si>
+  <si>
+    <t>Pname</t>
+  </si>
+  <si>
+    <t>Hair Products,Hair Tools,Benefits,Gifts &amp; Kits,New,How To &amp; Inspo</t>
+  </si>
+  <si>
+    <t>0123</t>
+  </si>
+  <si>
+    <t>OutProductName</t>
+  </si>
+  <si>
+    <t>MasterCard</t>
+  </si>
+  <si>
+    <t>AMEX</t>
+  </si>
+  <si>
+    <t>Discover</t>
+  </si>
+  <si>
+    <t>6011016011016011</t>
+  </si>
+  <si>
+    <t>ProductReview</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>The product is very Good</t>
+  </si>
+  <si>
+    <t>Nice Product. The Liquid glass smoothening shampoo is a lightweight, compact tool with all the power of a full-sized dryer, adorned in a chic, amethyst hue.</t>
+  </si>
+  <si>
+    <t>CCVisa</t>
+  </si>
+  <si>
+    <t>ccdiscover</t>
+  </si>
+  <si>
+    <t>ccamex</t>
+  </si>
+  <si>
+    <t>4112344112344113</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>5111005111051120</t>
+  </si>
+  <si>
+    <t>371144371144376</t>
+  </si>
+  <si>
+    <t>CCmastercard</t>
+  </si>
+  <si>
+    <t>At First Crush Straightening Brush Kit</t>
+  </si>
+  <si>
     <t>Liquid Glass</t>
   </si>
   <si>
-    <t>GiftCard</t>
-  </si>
-  <si>
-    <t>GiftCardCode</t>
-  </si>
-  <si>
-    <t>GiftCardPin</t>
-  </si>
-  <si>
-    <t>couponCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEST4TEST  </t>
-  </si>
-  <si>
-    <t>Threedigitproductname</t>
-  </si>
-  <si>
-    <t>Hai</t>
-  </si>
-  <si>
-    <t>Fourdigitproductname</t>
-  </si>
-  <si>
-    <t>Hair</t>
-  </si>
-  <si>
-    <t>Nameofproduct</t>
-  </si>
-  <si>
-    <t>Hair Products</t>
-  </si>
-  <si>
-    <t>dublicateproductname</t>
-  </si>
-  <si>
-    <t>color care</t>
-  </si>
-  <si>
-    <t>invalidname</t>
-  </si>
-  <si>
-    <t>ppp</t>
-  </si>
-  <si>
-    <t>Pname</t>
-  </si>
-  <si>
-    <t>Shampoos</t>
-  </si>
-  <si>
-    <t>Hair Products,Hair Tools,Benefits,Gifts &amp; Kits,New,How To &amp; Inspo</t>
-  </si>
-  <si>
-    <t>0123</t>
-  </si>
-  <si>
-    <t>TESTING_QA</t>
-  </si>
-  <si>
-    <t>OutProductName</t>
-  </si>
-  <si>
-    <t>MasterCard</t>
-  </si>
-  <si>
-    <t>mastercardnumber</t>
-  </si>
-  <si>
-    <t>5111005111051128</t>
-  </si>
-  <si>
-    <t>cardType2</t>
-  </si>
-  <si>
-    <t>Amexcard</t>
-  </si>
-  <si>
-    <t>AMEX</t>
-  </si>
-  <si>
-    <t>Amexcardnumber</t>
-  </si>
-  <si>
-    <t>371144371144376</t>
-  </si>
-  <si>
-    <t>Discovercard</t>
-  </si>
-  <si>
-    <t>Discover</t>
-  </si>
-  <si>
-    <t>Discovercardnumber</t>
-  </si>
-  <si>
-    <t>amexcvv</t>
-  </si>
-  <si>
-    <t>6011016011016011</t>
-  </si>
-  <si>
-    <t>ProductReview</t>
-  </si>
-  <si>
-    <t>Review</t>
-  </si>
-  <si>
-    <t>The product is very Good</t>
-  </si>
-  <si>
-    <t>Nice Product. The Liquid glass smoothening shampoo is a lightweight, compact tool with all the power of a full-sized dryer, adorned in a chic, amethyst hue.</t>
+    <t>Shampoo</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,6 +454,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -483,7 +489,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -504,9 +510,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -789,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BK14"/>
+  <dimension ref="A1:BD19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC5" workbookViewId="0">
-      <selection activeCell="BJ15" sqref="BJ15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,49 +820,46 @@
     <col min="10" max="11" width="28.28515625" customWidth="1"/>
     <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="34.140625" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" customWidth="1"/>
-    <col min="18" max="20" width="17.42578125" customWidth="1"/>
-    <col min="21" max="21" width="18.28515625" customWidth="1"/>
-    <col min="22" max="22" width="16.140625" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.42578125" customWidth="1"/>
-    <col min="25" max="25" width="19.140625" customWidth="1"/>
-    <col min="26" max="26" width="26.42578125" customWidth="1"/>
-    <col min="27" max="27" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="61.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="27.28515625" customWidth="1"/>
-    <col min="32" max="32" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="14.7109375" customWidth="1"/>
-    <col min="44" max="44" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="21.140625" customWidth="1"/>
-    <col min="46" max="46" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="27.28515625" customWidth="1"/>
-    <col min="56" max="56" width="24" customWidth="1"/>
-    <col min="57" max="57" width="17.5703125" customWidth="1"/>
-    <col min="58" max="58" width="21.140625" customWidth="1"/>
-    <col min="59" max="59" width="13.28515625" customWidth="1"/>
-    <col min="60" max="60" width="10.5703125" customWidth="1"/>
-    <col min="61" max="61" width="17.5703125" customWidth="1"/>
-    <col min="62" max="62" width="29.42578125" customWidth="1"/>
-    <col min="63" max="63" width="26" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" customWidth="1"/>
+    <col min="15" max="15" width="18.28515625" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.140625" customWidth="1"/>
+    <col min="19" max="19" width="26.42578125" customWidth="1"/>
+    <col min="20" max="20" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.28515625" customWidth="1"/>
+    <col min="25" max="25" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.7109375" customWidth="1"/>
+    <col min="37" max="37" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="21.140625" customWidth="1"/>
+    <col min="39" max="39" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="27.28515625" customWidth="1"/>
+    <col min="49" max="49" width="24" customWidth="1"/>
+    <col min="50" max="50" width="17.5703125" customWidth="1"/>
+    <col min="51" max="51" width="21.140625" customWidth="1"/>
+    <col min="52" max="52" width="13.28515625" customWidth="1"/>
+    <col min="53" max="53" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="33.42578125" customWidth="1"/>
+    <col min="55" max="55" width="29.42578125" customWidth="1"/>
+    <col min="56" max="56" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
@@ -891,155 +900,134 @@
         <v>14</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="T1" s="10" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="V1" s="10" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="W1" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="Y1" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z1" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB1" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC1" s="10" t="s">
-        <v>70</v>
+      <c r="AC1" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="AD1" s="10" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="AE1" s="10" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="AF1" s="10" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
       <c r="AG1" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH1" s="10"/>
+        <v>31</v>
+      </c>
+      <c r="AH1" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="AI1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="AJ1" s="7" t="s">
-        <v>24</v>
+        <v>42</v>
+      </c>
+      <c r="AJ1" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="AK1" s="10" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="AL1" s="10" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="AM1" s="10" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="AN1" s="10" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="AO1" s="10" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="AP1" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AQ1" s="10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="AR1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV1" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AW1" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX1" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AY1" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ1" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA1" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="BB1" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BC1" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="BD1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="AT1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="AX1" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="AY1" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="AZ1" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="BA1" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="BB1" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="BC1" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="BD1" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="BE1" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="BF1" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="BG1" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="BH1" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="BI1" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="BJ1" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="BK1" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1067,14 +1055,8 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-    </row>
-    <row r="3" spans="1:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -1089,39 +1071,33 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" t="s">
-        <v>93</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>100</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>102</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>104</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>106</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>108</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>110</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="U3" s="5"/>
+      <c r="V3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>107</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1136,43 +1112,22 @@
       <c r="M4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="R4" s="9" t="s">
+      <c r="N4" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="S4" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="U4" s="1">
+      <c r="O4" s="1">
         <v>2025</v>
       </c>
-      <c r="V4" t="s">
+      <c r="P4" t="s">
         <v>23</v>
       </c>
-      <c r="W4">
+      <c r="Q4">
         <v>123</v>
       </c>
-      <c r="X4">
-        <v>1234</v>
-      </c>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="3"/>
-    </row>
-    <row r="5" spans="1:63" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U4" s="5"/>
+      <c r="V4" s="3"/>
+    </row>
+    <row r="5" spans="1:56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -1204,13 +1159,13 @@
       <c r="L5">
         <v>8500563032</v>
       </c>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="2"/>
-      <c r="AI5" s="3">
+      <c r="X5" s="4"/>
+      <c r="Y5" s="2"/>
+      <c r="AB5" s="3">
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:63" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -1241,14 +1196,8 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-    </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -1264,7 +1213,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -1276,38 +1225,38 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="Y8" t="s">
+      <c r="R8" t="s">
         <v>81</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="S8" t="s">
         <v>82</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="T8" t="s">
         <v>83</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="U8" t="s">
         <v>84</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="AC8" t="s">
         <v>25</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AD8" t="s">
         <v>27</v>
       </c>
-      <c r="AL8">
+      <c r="AE8">
         <v>123456</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="AF8" t="s">
         <v>30</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="AG8" t="s">
         <v>32</v>
       </c>
-      <c r="AO8" t="s">
+      <c r="AH8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>85</v>
       </c>
@@ -1329,7 +1278,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>89</v>
       </c>
@@ -1344,102 +1293,179 @@
       <c r="M10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="9" t="s">
+      <c r="N10" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="1">
+      <c r="O10" s="1">
         <v>2025</v>
       </c>
-      <c r="V10" t="s">
+      <c r="P10" t="s">
         <v>23</v>
       </c>
-      <c r="W10">
+      <c r="Q10">
         <v>123</v>
       </c>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="3"/>
-      <c r="AG10" s="7"/>
-    </row>
-    <row r="11" spans="1:63" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U10" s="5"/>
+      <c r="V10" s="3"/>
+      <c r="Z10" s="7"/>
+    </row>
+    <row r="11" spans="1:56" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="AD11" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG11"/>
+      <c r="W11" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z11"/>
+      <c r="AJ11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP11" s="7">
+        <v>27</v>
+      </c>
       <c r="AQ11" s="7" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="AR11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AS11" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AT11" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
+      </c>
+      <c r="AS11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT11" s="7">
+        <v>2</v>
       </c>
       <c r="AU11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="AV11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AW11" s="7">
-        <v>27</v>
-      </c>
-      <c r="AX11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AZ11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA11" s="7">
-        <v>2</v>
-      </c>
-      <c r="BB11" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE12" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="X12" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y12" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:56" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>116</v>
+      </c>
+      <c r="BC14" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>120</v>
+      </c>
+      <c r="M15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O15" s="2">
+        <v>2025</v>
+      </c>
+      <c r="P15" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:56" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="M16" t="s">
+        <v>114</v>
+      </c>
+      <c r="N16" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="O16" s="2">
+        <v>2025</v>
+      </c>
+      <c r="P16" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="33" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M17" t="s">
+        <v>113</v>
+      </c>
+      <c r="N17" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="O17" s="2">
+        <v>2025</v>
+      </c>
+      <c r="P17" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>128</v>
+      </c>
+      <c r="M18" t="s">
         <v>112</v>
       </c>
-      <c r="AF12" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:63" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>128</v>
-      </c>
-      <c r="BJ14" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="BK14" t="s">
-        <v>130</v>
-      </c>
+      <c r="N18" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="O18" s="2">
+        <v>2025</v>
+      </c>
+      <c r="P18" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N19" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/test/resources/TestData/DryBar/DryBarTestData.xlsx
+++ b/src/test/resources/TestData/DryBar/DryBarTestData.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAFFBAD-832C-44F7-96CC-112ABEF6554D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528CE867-64BA-47CF-93BD-56DB8B31BC4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20580" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="162">
   <si>
     <t>UserName</t>
   </si>
@@ -320,9 +320,6 @@
     <t>couponCode</t>
   </si>
   <si>
-    <t xml:space="preserve">TEST4TEST  </t>
-  </si>
-  <si>
     <t>Threedigitproductname</t>
   </si>
   <si>
@@ -407,9 +404,6 @@
     <t>Apr</t>
   </si>
   <si>
-    <t>5111005111051120</t>
-  </si>
-  <si>
     <t>371144371144376</t>
   </si>
   <si>
@@ -422,7 +416,103 @@
     <t>Liquid Glass</t>
   </si>
   <si>
-    <t>Shampoo</t>
+    <t>liquid glass smoothing shampoo</t>
+  </si>
+  <si>
+    <t>5500005555555559</t>
+  </si>
+  <si>
+    <t>TESTINGQA</t>
+  </si>
+  <si>
+    <t>yoga.manoj@gmail.com</t>
+  </si>
+  <si>
+    <t>GuestEmail</t>
+  </si>
+  <si>
+    <t>SelectsortOptions</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Best Sellers</t>
+  </si>
+  <si>
+    <t>Most Viewed</t>
+  </si>
+  <si>
+    <t>Top Rated</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>low to high</t>
+  </si>
+  <si>
+    <t>high to low</t>
+  </si>
+  <si>
+    <t>Price: low to high</t>
+  </si>
+  <si>
+    <t>Price: high to low</t>
+  </si>
+  <si>
+    <t>Shampoos,Conditioners,Dry Shampoo,Styling,Color Care</t>
+  </si>
+  <si>
+    <t>HairproductsMegaMenu</t>
+  </si>
+  <si>
+    <t>Megamenu</t>
+  </si>
+  <si>
+    <t>Blow-Dryers,Curling Irons,Straightening Tools,Brushes,Accessories</t>
+  </si>
+  <si>
+    <t>HairtoolsMegaMenu</t>
+  </si>
+  <si>
+    <t>BenefitsMegaMenu</t>
+  </si>
+  <si>
+    <t>Cleanse &amp; Condition,Extend Your Blowout,Hold,Multi Purpose,Texture,Treat &amp; Protect,Volume,</t>
+  </si>
+  <si>
+    <t>GiftsMegaMenu</t>
+  </si>
+  <si>
+    <t>NewMegaMenu</t>
+  </si>
+  <si>
+    <t>Products,Videos,Insp,Sight</t>
+  </si>
+  <si>
+    <t>HowToInspoMegaMenu</t>
+  </si>
+  <si>
+    <t>Gift Kits,Gift Cards,Gifts Under $50,Gifts Under $100,Gifts Test Category</t>
+  </si>
+  <si>
+    <t>Videos,Articles,Gallery,Glossary</t>
+  </si>
+  <si>
+    <t>Maildetails</t>
+  </si>
+  <si>
+    <t>varaprasad.raikanti@gmail.com</t>
+  </si>
+  <si>
+    <t>Varaprasad</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Hey, Look at this Item</t>
   </si>
 </sst>
 </file>
@@ -476,7 +566,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -484,12 +574,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -519,6 +624,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -801,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BD19"/>
+  <dimension ref="A1:BN26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="BE11" workbookViewId="0">
+      <selection activeCell="BK17" sqref="BK17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,7 +920,7 @@
     <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="32.28515625" customWidth="1"/>
@@ -827,7 +935,7 @@
     <col min="18" max="18" width="19.140625" customWidth="1"/>
     <col min="19" max="19" width="26.42578125" customWidth="1"/>
     <col min="20" max="20" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="61.140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="27.28515625" customWidth="1"/>
     <col min="25" max="25" width="11.140625" bestFit="1" customWidth="1"/>
@@ -857,9 +965,17 @@
     <col min="54" max="54" width="33.42578125" customWidth="1"/>
     <col min="55" max="55" width="29.42578125" customWidth="1"/>
     <col min="56" max="56" width="26" customWidth="1"/>
+    <col min="57" max="57" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="102.42578125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:66" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
@@ -1000,34 +1116,64 @@
         <v>59</v>
       </c>
       <c r="AV1" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AW1" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AX1" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AY1" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AZ1" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BA1" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BB1" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BC1" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BD1" s="10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE1" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="BF1" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="BG1" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="BH1" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="BI1" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="BJ1" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="BK1" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="BL1" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="BM1" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="BN1" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1056,7 +1202,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -1073,31 +1219,31 @@
       <c r="O3" s="1"/>
       <c r="U3" s="5"/>
       <c r="V3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AV3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AW3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AX3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AY3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AZ3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BA3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="BB3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1127,7 +1273,7 @@
       <c r="U4" s="5"/>
       <c r="V4" s="3"/>
     </row>
-    <row r="5" spans="1:56" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -1154,7 +1300,7 @@
         <v>35</v>
       </c>
       <c r="K5">
-        <v>6492</v>
+        <v>64921</v>
       </c>
       <c r="L5">
         <v>8500563032</v>
@@ -1164,8 +1310,11 @@
       <c r="AB5" s="3">
         <v>123</v>
       </c>
-    </row>
-    <row r="6" spans="1:56" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BE5" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>74</v>
       </c>
@@ -1197,7 +1346,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -1213,7 +1362,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>78</v>
       </c>
@@ -1256,7 +1405,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>85</v>
       </c>
@@ -1278,7 +1427,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>89</v>
       </c>
@@ -1309,12 +1458,12 @@
       <c r="V10" s="3"/>
       <c r="Z10" s="7"/>
     </row>
-    <row r="11" spans="1:56" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:66" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>91</v>
       </c>
       <c r="W11" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Z11"/>
       <c r="AJ11" s="7" t="s">
@@ -1354,45 +1503,45 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>93</v>
       </c>
       <c r="X12" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Y12" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>96</v>
       </c>
       <c r="Z13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:56" ht="90" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:66" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BC14" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>119</v>
-      </c>
-      <c r="BD14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>120</v>
       </c>
       <c r="M15" t="s">
         <v>20</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O15" s="2">
         <v>2025</v>
@@ -1404,76 +1553,164 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:56" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:66" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M16" t="s">
+        <v>113</v>
+      </c>
+      <c r="N16" s="14" t="s">
         <v>114</v>
-      </c>
-      <c r="N16" s="14" t="s">
-        <v>115</v>
       </c>
       <c r="O16" s="2">
         <v>2025</v>
       </c>
       <c r="P16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q16" s="3">
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:66" ht="33" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O17" s="2">
         <v>2025</v>
       </c>
       <c r="P17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="3">
         <v>1234</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N18" s="11" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="O18" s="2">
         <v>2025</v>
       </c>
       <c r="P18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="3">
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>134</v>
+      </c>
       <c r="N19" s="11"/>
+      <c r="BF19" t="s">
+        <v>135</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>136</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>137</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>138</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>139</v>
+      </c>
+      <c r="BK19" t="s">
+        <v>142</v>
+      </c>
+      <c r="BL19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>145</v>
+      </c>
+      <c r="BM20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>148</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>149</v>
+      </c>
+      <c r="BM22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>151</v>
+      </c>
+      <c r="BM23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>152</v>
+      </c>
+      <c r="BM24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>154</v>
+      </c>
+      <c r="BM25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BN26" t="s">
+        <v>161</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{0EE2B951-04E0-4C37-AD27-41ABE90F13C8}"/>
     <hyperlink ref="F2" r:id="rId2" xr:uid="{B53FBB69-9CC8-474A-99E0-104E2972872E}"/>
     <hyperlink ref="C2" r:id="rId3" xr:uid="{1E2EF8D6-0728-4603-8801-14D9C148AAC7}"/>
+    <hyperlink ref="BE5" r:id="rId4" xr:uid="{7EAA2625-5DF5-4A43-BFD0-B64018446D5D}"/>
+    <hyperlink ref="F26" r:id="rId5" xr:uid="{85702DA2-6B99-4F4A-9AA2-9F1D91BC8E3A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/DryBar/DryBarTestData.xlsx
+++ b/src/test/resources/TestData/DryBar/DryBarTestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528CE867-64BA-47CF-93BD-56DB8B31BC4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6C1098-3525-460B-B66C-4F16AF36514E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20580" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="180">
   <si>
     <t>UserName</t>
   </si>
@@ -127,13 +127,7 @@
     <t xml:space="preserve">how can i get my order on time </t>
   </si>
   <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
     <t>844 N Colony Rd</t>
-  </si>
-  <si>
-    <t>Wallingford</t>
   </si>
   <si>
     <t>PaypalDetails</t>
@@ -514,15 +508,76 @@
   <si>
     <t>Hey, Look at this Item</t>
   </si>
+  <si>
+    <t>MagentoAccountDetails</t>
+  </si>
+  <si>
+    <t>vraikanti</t>
+  </si>
+  <si>
+    <t>Prasad!123</t>
+  </si>
+  <si>
+    <t>SalesMenu</t>
+  </si>
+  <si>
+    <t>Orders,Invoices,Shipments,Credit Memos,Returns,Billing Agreements,Transactions,Plans,Manual Export,Execution Log,Manual Import,Execution Log,Sources</t>
+  </si>
+  <si>
+    <t>Products,Categories</t>
+  </si>
+  <si>
+    <t>CatalogMenu</t>
+  </si>
+  <si>
+    <t>Pages,Blocks</t>
+  </si>
+  <si>
+    <t>ContentMenu</t>
+  </si>
+  <si>
+    <t>CMS</t>
+  </si>
+  <si>
+    <t>SelectCMS</t>
+  </si>
+  <si>
+    <t>Drybar | Premium Hair Care Created for the Perfect Blowout</t>
+  </si>
+  <si>
+    <t>El paso</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Taxoftwoproducts</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>$4.29</t>
+  </si>
+  <si>
+    <t>MostViewed</t>
+  </si>
+  <si>
+    <t>ConfigurableProductname</t>
+  </si>
+  <si>
+    <t>Detox dry shampoo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,6 +604,18 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF42413D"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -594,7 +661,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -628,6 +695,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -909,15 +978,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BN26"/>
+  <dimension ref="A1:BO33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BE11" workbookViewId="0">
-      <selection activeCell="BK17" sqref="BK17"/>
+    <sheetView tabSelected="1" topLeftCell="N18" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -940,6 +1009,7 @@
     <col min="24" max="24" width="27.28515625" customWidth="1"/>
     <col min="25" max="25" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="60.7109375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="4" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -969,13 +1039,12 @@
     <col min="59" max="59" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="102.42578125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="20" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="39.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:67" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
@@ -992,10 +1061,10 @@
         <v>6</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>10</v>
@@ -1028,33 +1097,35 @@
         <v>18</v>
       </c>
       <c r="R1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="T1" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="U1" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="U1" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>70</v>
-      </c>
       <c r="W1" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="X1" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="Y1" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z1" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="Y1" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z1" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA1" s="10"/>
+      <c r="AA1" s="16" t="s">
+        <v>170</v>
+      </c>
       <c r="AB1" s="10" t="s">
         <v>18</v>
       </c>
@@ -1077,111 +1148,114 @@
         <v>33</v>
       </c>
       <c r="AI1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="AJ1" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK1" s="10" t="s">
+      <c r="AN1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AL1" s="10" t="s">
+      <c r="AO1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT1" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="AM1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP1" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ1" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR1" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS1" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="AT1" s="10" t="s">
-        <v>63</v>
-      </c>
       <c r="AU1" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AV1" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="AW1" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="AW1" s="10" t="s">
+      <c r="AX1" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="AX1" s="10" t="s">
+      <c r="AY1" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="AY1" s="10" t="s">
+      <c r="AZ1" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="AZ1" s="10" t="s">
+      <c r="BA1" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="BA1" s="10" t="s">
-        <v>107</v>
-      </c>
       <c r="BB1" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BC1" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="BD1" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BE1" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="BF1" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="BF1" s="10" t="s">
-        <v>135</v>
-      </c>
       <c r="BG1" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="BH1" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="BI1" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="BH1" s="10" t="s">
+      <c r="BJ1" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="BI1" s="10" t="s">
+      <c r="BK1" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="BJ1" s="10" t="s">
+      <c r="BL1" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="BK1" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="BL1" s="10" t="s">
-        <v>141</v>
-      </c>
       <c r="BM1" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="BN1" s="10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="BO1" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1190,7 +1264,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1202,9 +1276,9 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C3" s="1"/>
       <c r="F3" s="1"/>
@@ -1219,31 +1293,31 @@
       <c r="O3" s="1"/>
       <c r="U3" s="5"/>
       <c r="V3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AV3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW3" t="s">
         <v>98</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="AX3" t="s">
         <v>100</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AY3" t="s">
         <v>102</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="AZ3" t="s">
         <v>104</v>
       </c>
-      <c r="AZ3" t="s">
-        <v>106</v>
-      </c>
       <c r="BA3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="BB3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1259,7 +1333,7 @@
         <v>20</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O4" s="1">
         <v>2025</v>
@@ -1273,9 +1347,9 @@
       <c r="U4" s="5"/>
       <c r="V4" s="3"/>
     </row>
-    <row r="5" spans="1:66" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" t="s">
@@ -1285,22 +1359,22 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>173</v>
       </c>
       <c r="K5">
-        <v>64921</v>
+        <v>79912</v>
       </c>
       <c r="L5">
         <v>8500563032</v>
@@ -1311,24 +1385,24 @@
         <v>123</v>
       </c>
       <c r="BE5" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:66" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:67" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>19</v>
@@ -1337,7 +1411,7 @@
         <v>19</v>
       </c>
       <c r="K6" s="1">
-        <v>46008</v>
+        <v>79912</v>
       </c>
       <c r="L6" s="1">
         <v>9998999999</v>
@@ -1346,15 +1420,15 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1362,29 +1436,29 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="R8" t="s">
+        <v>79</v>
+      </c>
+      <c r="S8" t="s">
+        <v>80</v>
+      </c>
+      <c r="T8" t="s">
         <v>81</v>
       </c>
-      <c r="S8" t="s">
+      <c r="U8" t="s">
         <v>82</v>
-      </c>
-      <c r="T8" t="s">
-        <v>83</v>
-      </c>
-      <c r="U8" t="s">
-        <v>84</v>
       </c>
       <c r="AC8" t="s">
         <v>25</v>
@@ -1405,9 +1479,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -1427,9 +1501,9 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C10" s="1"/>
       <c r="F10" s="1"/>
@@ -1443,7 +1517,7 @@
         <v>20</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O10" s="1">
         <v>2025</v>
@@ -1458,90 +1532,90 @@
       <c r="V10" s="3"/>
       <c r="Z10" s="7"/>
     </row>
-    <row r="11" spans="1:66" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:67" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="W11" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Z11"/>
       <c r="AJ11" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AK11" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL11" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AM11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AN11" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="AO11" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AP11" s="7">
         <v>27</v>
       </c>
       <c r="AQ11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS11" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="AR11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS11" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="AT11" s="7">
         <v>2</v>
       </c>
       <c r="AU11" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="X12" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Y12" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Z13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:66" ht="90" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:67" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC14" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD14" t="s">
         <v>115</v>
       </c>
-      <c r="BC14" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="BD14" t="s">
+    </row>
+    <row r="15" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>119</v>
       </c>
       <c r="M15" t="s">
         <v>20</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O15" s="2">
         <v>2025</v>
@@ -1553,153 +1627,212 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:66" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:67" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O16" s="2">
         <v>2025</v>
       </c>
       <c r="P16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q16" s="3">
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:66" ht="33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:67" ht="33" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O17" s="2">
         <v>2025</v>
       </c>
       <c r="P17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="3">
         <v>1234</v>
       </c>
     </row>
-    <row r="18" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N18" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O18" s="2">
         <v>2025</v>
       </c>
       <c r="P18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q18" s="3">
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N19" s="11"/>
       <c r="BF19" t="s">
+        <v>133</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>134</v>
+      </c>
+      <c r="BH19" t="s">
         <v>135</v>
       </c>
-      <c r="BG19" t="s">
+      <c r="BI19" t="s">
         <v>136</v>
       </c>
-      <c r="BH19" t="s">
+      <c r="BJ19" t="s">
         <v>137</v>
       </c>
-      <c r="BI19" t="s">
-        <v>138</v>
-      </c>
-      <c r="BJ19" t="s">
-        <v>139</v>
-      </c>
       <c r="BK19" t="s">
+        <v>140</v>
+      </c>
+      <c r="BL19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>143</v>
+      </c>
+      <c r="BM20" t="s">
         <v>142</v>
       </c>
-      <c r="BL19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    </row>
+    <row r="21" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>146</v>
+      </c>
+      <c r="BM21" t="s">
         <v>145</v>
       </c>
-      <c r="BM20" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    </row>
+    <row r="22" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>147</v>
+      </c>
+      <c r="BM22" t="s">
         <v>148</v>
       </c>
-      <c r="BM21" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="22" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    </row>
+    <row r="23" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>149</v>
       </c>
-      <c r="BM22" t="s">
+      <c r="BM23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="23" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="BM24" t="s">
         <v>151</v>
       </c>
-      <c r="BM23" t="s">
+    </row>
+    <row r="25" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>152</v>
+      </c>
+      <c r="BM25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="24" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>152</v>
-      </c>
-      <c r="BM24" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>154</v>
-      </c>
-      <c r="BM25" t="s">
+      <c r="D26" t="s">
+        <v>157</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="26" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>157</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="BN26" t="s">
         <v>159</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="BN26" t="s">
+    </row>
+    <row r="27" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>160</v>
+      </c>
+      <c r="B27" t="s">
         <v>161</v>
+      </c>
+      <c r="C27" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>163</v>
+      </c>
+      <c r="BM28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>166</v>
+      </c>
+      <c r="BM29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>168</v>
+      </c>
+      <c r="BM30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA31" s="17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:67" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>174</v>
+      </c>
+      <c r="BO32" s="18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>178</v>
+      </c>
+      <c r="V33" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/DryBar/DryBarTestData.xlsx
+++ b/src/test/resources/TestData/DryBar/DryBarTestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6C1098-3525-460B-B66C-4F16AF36514E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134BD324-113F-4825-99C8-7BAA710650C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20580" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="228">
   <si>
     <t>UserName</t>
   </si>
@@ -125,9 +125,6 @@
   </si>
   <si>
     <t xml:space="preserve">how can i get my order on time </t>
-  </si>
-  <si>
-    <t>844 N Colony Rd</t>
   </si>
   <si>
     <t>PaypalDetails</t>
@@ -248,12 +245,6 @@
     <t>BiillingAddress</t>
   </si>
   <si>
-    <t>Akhil</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
     <t>Plat no2dream Valley</t>
   </si>
   <si>
@@ -287,9 +278,6 @@
     <t>xshzsmsmstzenzojra@mhzayt.online</t>
   </si>
   <si>
-    <t>Rajkumar@1155</t>
-  </si>
-  <si>
     <t>InvalidPaymentDetails</t>
   </si>
   <si>
@@ -389,9 +377,6 @@
     <t>ccamex</t>
   </si>
   <si>
-    <t>4112344112344113</t>
-  </si>
-  <si>
     <t>Mar</t>
   </si>
   <si>
@@ -410,9 +395,6 @@
     <t>Liquid Glass</t>
   </si>
   <si>
-    <t>liquid glass smoothing shampoo</t>
-  </si>
-  <si>
     <t>5500005555555559</t>
   </si>
   <si>
@@ -545,28 +527,191 @@
     <t>Drybar | Premium Hair Care Created for the Perfect Blowout</t>
   </si>
   <si>
-    <t>El paso</t>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>MostViewed</t>
+  </si>
+  <si>
+    <t>ConfigurableProductname</t>
+  </si>
+  <si>
+    <t>Detox dry shampoo</t>
+  </si>
+  <si>
+    <t>Blow dryers</t>
+  </si>
+  <si>
+    <t>Wilmington</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>9987065438</t>
+  </si>
+  <si>
+    <t>715 Christiana Mall</t>
+  </si>
+  <si>
+    <t>NoTaxShippingAddress</t>
+  </si>
+  <si>
+    <t>couponCode2</t>
+  </si>
+  <si>
+    <t>TEST5OFF25</t>
+  </si>
+  <si>
+    <t>EmployeDiscountProductname</t>
+  </si>
+  <si>
+    <t>Drybar_QA</t>
+  </si>
+  <si>
+    <t>POBoxAddress</t>
+  </si>
+  <si>
+    <t>PO Box 326</t>
+  </si>
+  <si>
+    <t>Pawnee</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>TaxRate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7885 Railroad Rd
+</t>
+  </si>
+  <si>
+    <t>Trinidad</t>
   </si>
   <si>
     <t>Texas</t>
   </si>
   <si>
-    <t>Taxoftwoproducts</t>
-  </si>
-  <si>
-    <t>Tax</t>
-  </si>
-  <si>
-    <t>$4.29</t>
-  </si>
-  <si>
-    <t>MostViewed</t>
-  </si>
-  <si>
-    <t>ConfigurableProductname</t>
-  </si>
-  <si>
-    <t>Detox dry shampoo</t>
+    <t>8.25</t>
+  </si>
+  <si>
+    <t>Countryname</t>
+  </si>
+  <si>
+    <t>OutOfUSAddress</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>HoTEmployeeAccountDetails</t>
+  </si>
+  <si>
+    <t>vraikanti@helenoftroy.com</t>
+  </si>
+  <si>
+    <t>yoga.manoj7@gmail.com</t>
+  </si>
+  <si>
+    <t>54870 Erromanga Ave</t>
+  </si>
+  <si>
+    <t>Kenai</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>8765890325</t>
+  </si>
+  <si>
+    <t>Naveen</t>
+  </si>
+  <si>
+    <t>akhila</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Manoj</t>
+  </si>
+  <si>
+    <t>Giftcard2</t>
+  </si>
+  <si>
+    <t>GiftCardDetails</t>
+  </si>
+  <si>
+    <t>GiftCardAmount</t>
+  </si>
+  <si>
+    <t>GiftCardSenderName</t>
+  </si>
+  <si>
+    <t>GiftCardsenderEmail</t>
+  </si>
+  <si>
+    <t>GiftCardRecipientName</t>
+  </si>
+  <si>
+    <t>GiftCardRecipientEmail</t>
+  </si>
+  <si>
+    <t>GiftCardMessage</t>
+  </si>
+  <si>
+    <t>Akhila</t>
+  </si>
+  <si>
+    <t>akhilabogi77@gmail.com</t>
+  </si>
+  <si>
+    <t>Hai!</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>POBoxAddresswithAlaska</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>POBoxAddresswithHawaii</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>POBoxAddresswithPuertoRico</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Non-POBoxwithAlaska</t>
+  </si>
+  <si>
+    <t>Non-POBoxwithHawaii</t>
+  </si>
+  <si>
+    <t>Non-POBoxwithPuertoRico</t>
+  </si>
+  <si>
+    <t>QA.Testing@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -574,10 +719,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -618,8 +763,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -630,6 +782,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -661,12 +819,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -696,7 +854,19 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="8" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -978,73 +1148,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BO33"/>
+  <dimension ref="A1:BW47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N18" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="32.28515625" customWidth="1"/>
-    <col min="9" max="9" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="28.28515625" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" customWidth="1"/>
-    <col min="16" max="16" width="16.140625" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.140625" customWidth="1"/>
-    <col min="19" max="19" width="26.42578125" customWidth="1"/>
-    <col min="20" max="20" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="61.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.28515625" customWidth="1"/>
-    <col min="25" max="25" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="60.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.7109375" customWidth="1"/>
-    <col min="37" max="37" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="21.140625" customWidth="1"/>
-    <col min="39" max="39" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="27.28515625" customWidth="1"/>
-    <col min="49" max="49" width="24" customWidth="1"/>
-    <col min="50" max="50" width="17.5703125" customWidth="1"/>
-    <col min="51" max="51" width="21.140625" customWidth="1"/>
-    <col min="52" max="52" width="13.28515625" customWidth="1"/>
-    <col min="53" max="53" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="33.42578125" customWidth="1"/>
-    <col min="55" max="55" width="29.42578125" customWidth="1"/>
-    <col min="56" max="56" width="26" customWidth="1"/>
-    <col min="57" max="57" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="63" max="64" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="102.42578125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="39.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7265625" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="32.26953125" customWidth="1"/>
+    <col min="9" max="9" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.453125" customWidth="1"/>
+    <col min="11" max="12" width="28.26953125" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" customWidth="1"/>
+    <col min="16" max="16" width="18.26953125" customWidth="1"/>
+    <col min="17" max="17" width="16.1796875" customWidth="1"/>
+    <col min="18" max="18" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.1796875" customWidth="1"/>
+    <col min="20" max="20" width="26.453125" customWidth="1"/>
+    <col min="21" max="21" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="61.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="27.26953125" customWidth="1"/>
+    <col min="26" max="26" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="60.7265625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.7265625" customWidth="1"/>
+    <col min="38" max="38" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="21.1796875" customWidth="1"/>
+    <col min="40" max="40" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="35.453125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="27.26953125" customWidth="1"/>
+    <col min="50" max="50" width="24" customWidth="1"/>
+    <col min="51" max="51" width="17.54296875" customWidth="1"/>
+    <col min="52" max="52" width="21.1796875" customWidth="1"/>
+    <col min="53" max="53" width="13.26953125" customWidth="1"/>
+    <col min="54" max="54" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="33.453125" customWidth="1"/>
+    <col min="56" max="56" width="29.453125" customWidth="1"/>
+    <col min="57" max="57" width="26" customWidth="1"/>
+    <col min="58" max="58" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="64" max="65" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="102.453125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="39.7265625" customWidth="1"/>
+    <col min="69" max="69" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:75" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
@@ -1061,10 +1238,10 @@
         <v>6</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>10</v>
@@ -1073,189 +1250,213 @@
         <v>11</v>
       </c>
       <c r="J1" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="T1" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="U1" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="W1" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="W1" s="10" t="s">
+      <c r="X1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA1" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="X1" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y1" s="10" t="s">
+      <c r="AB1" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AO1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AS1" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AT1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW1" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AX1" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="Z1" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA1" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="AB1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD1" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE1" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AY1" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="AZ1" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA1" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="BB1" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="BC1" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="BD1" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="BE1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AJ1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL1" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="AP1" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="AQ1" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR1" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="AS1" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="AT1" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU1" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV1" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="AW1" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="AX1" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="AY1" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="AZ1" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="BA1" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="BB1" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="BC1" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="BD1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="BE1" s="10" t="s">
+      <c r="BF1" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BG1" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BH1" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="BI1" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="BJ1" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="BK1" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="BF1" s="10" t="s">
+      <c r="BL1" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="BM1" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="BG1" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="BH1" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="BI1" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="BJ1" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="BK1" s="10" t="s">
+      <c r="BN1" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="BL1" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="BM1" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="BN1" s="10" t="s">
-        <v>158</v>
-      </c>
       <c r="BO1" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="BP1" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="BQ1" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="BR1" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="BS1" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="BT1" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="BU1" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="BV1" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="BW1" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1264,7 +1465,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>85</v>
+        <v>227</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1275,10 +1476,11 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:75" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1"/>
       <c r="F3" s="1"/>
@@ -1291,33 +1493,34 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="U3" s="5"/>
-      <c r="V3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV3" t="s">
+      <c r="P3" s="1"/>
+      <c r="V3" s="5"/>
+      <c r="W3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY3" t="s">
         <v>96</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="AZ3" t="s">
         <v>98</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="BA3" t="s">
         <v>100</v>
       </c>
-      <c r="AY3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>104</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>126</v>
-      </c>
       <c r="BB3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1329,27 +1532,28 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="1"/>
+      <c r="N4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="O4" s="1">
+      <c r="O4" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="P4" s="1">
         <v>2025</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>23</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>123</v>
       </c>
-      <c r="U4" s="5"/>
-      <c r="V4" s="3"/>
-    </row>
-    <row r="5" spans="1:67" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V4" s="5"/>
+      <c r="W4" s="3"/>
+    </row>
+    <row r="5" spans="1:75" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" t="s">
@@ -1359,129 +1563,134 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
         <v>70</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="J5" s="21"/>
+      <c r="K5" t="s">
+        <v>187</v>
+      </c>
+      <c r="L5" s="20">
+        <v>75163</v>
+      </c>
+      <c r="M5">
+        <v>8500563032</v>
+      </c>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="2"/>
+      <c r="AC5" s="3">
+        <v>123</v>
+      </c>
+      <c r="BF5" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:75" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>71</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" t="s">
-        <v>172</v>
-      </c>
-      <c r="J5" t="s">
-        <v>173</v>
-      </c>
-      <c r="K5">
-        <v>79912</v>
-      </c>
-      <c r="L5">
-        <v>8500563032</v>
-      </c>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="2"/>
-      <c r="AB5" s="3">
-        <v>123</v>
-      </c>
-      <c r="BE5" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:67" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>72</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="G6" t="s">
+        <v>70</v>
+      </c>
       <c r="H6" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="1"/>
+      <c r="K6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>79912</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>9998999999</v>
       </c>
-      <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
+        <v>76</v>
+      </c>
+      <c r="T8" t="s">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s">
+        <v>78</v>
+      </c>
+      <c r="V8" t="s">
         <v>79</v>
       </c>
-      <c r="S8" t="s">
+      <c r="AD8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF8">
+        <v>123456</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:75" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>80</v>
-      </c>
-      <c r="T8" t="s">
-        <v>81</v>
-      </c>
-      <c r="U8" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE8">
-        <v>123456</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>83</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -1501,9 +1710,9 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C10" s="1"/>
       <c r="F10" s="1"/>
@@ -1513,337 +1722,749 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="1"/>
+      <c r="N10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="O10" s="1">
+      <c r="O10" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="P10" s="1">
         <v>2025</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>23</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>123</v>
       </c>
-      <c r="U10" s="5"/>
-      <c r="V10" s="3"/>
-      <c r="Z10" s="7"/>
-    </row>
-    <row r="11" spans="1:67" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V10" s="5"/>
+      <c r="W10" s="3"/>
+      <c r="AA10" s="7"/>
+    </row>
+    <row r="11" spans="1:75" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="W11" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="X11" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA11"/>
+      <c r="AK11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM11" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ11" s="7">
+        <v>27</v>
+      </c>
+      <c r="AR11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU11" s="7">
+        <v>2</v>
+      </c>
+      <c r="AV11" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:75" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y12" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z12" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:75" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y13" s="11">
+        <v>1515</v>
+      </c>
+      <c r="Z13" s="11">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="14" spans="1:75" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:75" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:75" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>109</v>
+      </c>
+      <c r="BD16" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>113</v>
+      </c>
+      <c r="N17" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" s="2">
+        <v>2025</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>23</v>
+      </c>
+      <c r="R17" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:67" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="N18" t="s">
+        <v>107</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="P18" s="2">
+        <v>2025</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>116</v>
+      </c>
+      <c r="R18" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:67" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="N19" t="s">
         <v>106</v>
       </c>
-      <c r="Z11"/>
-      <c r="AJ11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL11" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AP11" s="7">
-        <v>27</v>
-      </c>
-      <c r="AQ11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AT11" s="7">
-        <v>2</v>
-      </c>
-      <c r="AU11" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>91</v>
-      </c>
-      <c r="X12" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y12" s="11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z13" t="s">
+      <c r="O19" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="P19" s="2">
+        <v>2025</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>117</v>
+      </c>
+      <c r="R19" s="3">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>119</v>
+      </c>
+      <c r="N20" t="s">
+        <v>105</v>
+      </c>
+      <c r="O20" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="P20" s="2">
+        <v>2025</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>116</v>
+      </c>
+      <c r="R20" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>126</v>
+      </c>
+      <c r="O21" s="11"/>
+      <c r="BG21" t="s">
+        <v>127</v>
+      </c>
+      <c r="BH21" t="s">
+        <v>128</v>
+      </c>
+      <c r="BI21" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="14" spans="1:67" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>113</v>
-      </c>
-      <c r="BC14" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="BD14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>117</v>
-      </c>
-      <c r="M15" t="s">
-        <v>20</v>
-      </c>
-      <c r="N15" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="O15" s="2">
-        <v>2025</v>
-      </c>
-      <c r="P15" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="BJ21" t="s">
+        <v>130</v>
+      </c>
+      <c r="BK21" t="s">
+        <v>131</v>
+      </c>
+      <c r="BL21" t="s">
+        <v>134</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>140</v>
+      </c>
+      <c r="BN23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>141</v>
+      </c>
+      <c r="BN24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN25" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>144</v>
+      </c>
+      <c r="BN26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>146</v>
+      </c>
+      <c r="BN27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>149</v>
+      </c>
+      <c r="D28" t="s">
+        <v>151</v>
+      </c>
+      <c r="E28" t="s">
+        <v>192</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BO28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C29" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>157</v>
+      </c>
+      <c r="BN30" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>160</v>
+      </c>
+      <c r="BN31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:67" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>162</v>
+      </c>
+      <c r="BN32" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:75" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB33" s="17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>184</v>
+      </c>
+      <c r="BP34" s="18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:75" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>168</v>
+      </c>
+      <c r="W35" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:75" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>175</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" t="s">
+        <v>204</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36" t="s">
+        <v>70</v>
+      </c>
+      <c r="H36" t="s">
+        <v>174</v>
+      </c>
+      <c r="I36" t="s">
+        <v>171</v>
+      </c>
+      <c r="K36" t="s">
+        <v>172</v>
+      </c>
+      <c r="L36">
+        <v>19702</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:75" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="38" spans="1:75" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>178</v>
+      </c>
+      <c r="W38" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="1:75" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>180</v>
+      </c>
+      <c r="D39" t="s">
+        <v>200</v>
+      </c>
+      <c r="E39" t="s">
+        <v>203</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G39" t="s">
+        <v>70</v>
+      </c>
+      <c r="H39" t="s">
+        <v>181</v>
+      </c>
+      <c r="I39" t="s">
+        <v>182</v>
+      </c>
+      <c r="K39" t="s">
+        <v>183</v>
+      </c>
+      <c r="L39" s="11">
+        <v>74058</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:75" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>190</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" t="s">
+        <v>201</v>
+      </c>
+      <c r="E40" t="s">
+        <v>202</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G40" t="s">
+        <v>70</v>
+      </c>
+      <c r="H40" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="I40" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="J40" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="K40" t="s">
+        <v>198</v>
+      </c>
+      <c r="L40" s="20">
+        <v>99611</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="2"/>
+      <c r="AC40" s="3">
         <v>123</v>
       </c>
-    </row>
-    <row r="16" spans="1:67" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="M16" t="s">
-        <v>111</v>
-      </c>
-      <c r="N16" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="O16" s="2">
-        <v>2025</v>
-      </c>
-      <c r="P16" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q16" s="3">
+      <c r="BF40" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:75" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>206</v>
+      </c>
+      <c r="BQ41">
+        <v>399</v>
+      </c>
+      <c r="BR41" t="s">
+        <v>151</v>
+      </c>
+      <c r="BS41" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BT41" t="s">
+        <v>213</v>
+      </c>
+      <c r="BU41" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="BV41" t="s">
+        <v>215</v>
+      </c>
+      <c r="BW41" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:75" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>218</v>
+      </c>
+      <c r="D42" t="s">
+        <v>200</v>
+      </c>
+      <c r="E42" t="s">
+        <v>203</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G42" t="s">
+        <v>70</v>
+      </c>
+      <c r="H42" t="s">
+        <v>181</v>
+      </c>
+      <c r="I42" t="s">
+        <v>182</v>
+      </c>
+      <c r="K42" t="s">
+        <v>219</v>
+      </c>
+      <c r="L42" s="11">
+        <v>74058</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:75" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>220</v>
+      </c>
+      <c r="D43" t="s">
+        <v>200</v>
+      </c>
+      <c r="E43" t="s">
+        <v>203</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G43" t="s">
+        <v>70</v>
+      </c>
+      <c r="H43" t="s">
+        <v>181</v>
+      </c>
+      <c r="I43" t="s">
+        <v>182</v>
+      </c>
+      <c r="K43" t="s">
+        <v>221</v>
+      </c>
+      <c r="L43" s="11">
+        <v>74058</v>
+      </c>
+      <c r="M43" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" spans="1:75" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>222</v>
+      </c>
+      <c r="D44" t="s">
+        <v>200</v>
+      </c>
+      <c r="E44" t="s">
+        <v>203</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G44" t="s">
+        <v>70</v>
+      </c>
+      <c r="H44" t="s">
+        <v>181</v>
+      </c>
+      <c r="I44" t="s">
+        <v>182</v>
+      </c>
+      <c r="K44" t="s">
+        <v>223</v>
+      </c>
+      <c r="L44" s="11">
+        <v>74058</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" spans="1:75" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>224</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" t="s">
+        <v>69</v>
+      </c>
+      <c r="G45" t="s">
+        <v>70</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="I45" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="J45" s="21"/>
+      <c r="K45" t="s">
+        <v>219</v>
+      </c>
+      <c r="L45" s="20">
+        <v>75163</v>
+      </c>
+      <c r="M45">
+        <v>8500563032</v>
+      </c>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="2"/>
+      <c r="AC45" s="3">
         <v>123</v>
       </c>
-    </row>
-    <row r="17" spans="1:67" ht="33" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="M17" t="s">
-        <v>110</v>
-      </c>
-      <c r="N17" s="15" t="s">
+      <c r="BF45" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:75" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>225</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" t="s">
+        <v>69</v>
+      </c>
+      <c r="G46" t="s">
+        <v>70</v>
+      </c>
+      <c r="H46" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="J46" s="21"/>
+      <c r="K46" t="s">
+        <v>221</v>
+      </c>
+      <c r="L46" s="20">
+        <v>75163</v>
+      </c>
+      <c r="M46">
+        <v>8500563032</v>
+      </c>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="2"/>
+      <c r="AC46" s="3">
         <v>123</v>
       </c>
-      <c r="O17" s="2">
-        <v>2025</v>
-      </c>
-      <c r="P17" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="18" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="BF46" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M18" t="s">
-        <v>109</v>
-      </c>
-      <c r="N18" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="O18" s="2">
-        <v>2025</v>
-      </c>
-      <c r="P18" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q18" s="3">
+    </row>
+    <row r="47" spans="1:75" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>226</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" t="s">
+        <v>69</v>
+      </c>
+      <c r="G47" t="s">
+        <v>70</v>
+      </c>
+      <c r="H47" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="J47" s="21"/>
+      <c r="K47" t="s">
+        <v>223</v>
+      </c>
+      <c r="L47" s="20">
+        <v>75163</v>
+      </c>
+      <c r="M47">
+        <v>8500563032</v>
+      </c>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="2"/>
+      <c r="AC47" s="3">
         <v>123</v>
       </c>
-    </row>
-    <row r="19" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>132</v>
-      </c>
-      <c r="N19" s="11"/>
-      <c r="BF19" t="s">
-        <v>133</v>
-      </c>
-      <c r="BG19" t="s">
-        <v>134</v>
-      </c>
-      <c r="BH19" t="s">
-        <v>135</v>
-      </c>
-      <c r="BI19" t="s">
-        <v>136</v>
-      </c>
-      <c r="BJ19" t="s">
-        <v>137</v>
-      </c>
-      <c r="BK19" t="s">
-        <v>140</v>
-      </c>
-      <c r="BL19" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="20" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>143</v>
-      </c>
-      <c r="BM20" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>146</v>
-      </c>
-      <c r="BM21" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>147</v>
-      </c>
-      <c r="BM22" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="23" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>149</v>
-      </c>
-      <c r="BM23" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="24" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>150</v>
-      </c>
-      <c r="BM24" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="25" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>152</v>
-      </c>
-      <c r="BM25" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>155</v>
-      </c>
-      <c r="D26" t="s">
-        <v>157</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="BN26" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>160</v>
-      </c>
-      <c r="B27" t="s">
-        <v>161</v>
-      </c>
-      <c r="C27" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="28" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>163</v>
-      </c>
-      <c r="BM28" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>166</v>
-      </c>
-      <c r="BM29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="30" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>168</v>
-      </c>
-      <c r="BM30" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="31" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA31" s="17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:67" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>174</v>
-      </c>
-      <c r="BO32" s="18" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>178</v>
-      </c>
-      <c r="V33" t="s">
-        <v>179</v>
+      <c r="BF47" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{0EE2B951-04E0-4C37-AD27-41ABE90F13C8}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{B53FBB69-9CC8-474A-99E0-104E2972872E}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{1E2EF8D6-0728-4603-8801-14D9C148AAC7}"/>
-    <hyperlink ref="BE5" r:id="rId4" xr:uid="{7EAA2625-5DF5-4A43-BFD0-B64018446D5D}"/>
-    <hyperlink ref="F26" r:id="rId5" xr:uid="{85702DA2-6B99-4F4A-9AA2-9F1D91BC8E3A}"/>
+    <hyperlink ref="C2" r:id="rId2" display="drybar@1234" xr:uid="{1E2EF8D6-0728-4603-8801-14D9C148AAC7}"/>
+    <hyperlink ref="BF5" r:id="rId3" xr:uid="{7EAA2625-5DF5-4A43-BFD0-B64018446D5D}"/>
+    <hyperlink ref="F28" r:id="rId4" xr:uid="{85702DA2-6B99-4F4A-9AA2-9F1D91BC8E3A}"/>
+    <hyperlink ref="F37" r:id="rId5" xr:uid="{40C27E8C-3B81-4D20-A6BC-3DB1743540AE}"/>
+    <hyperlink ref="C37" r:id="rId6" display="drybar@1234" xr:uid="{BF124FBE-91BB-4F73-8DBB-84F5B8683E1F}"/>
+    <hyperlink ref="F2" r:id="rId7" xr:uid="{568174ED-A276-4261-81EE-07E533AC6D06}"/>
+    <hyperlink ref="BF40" r:id="rId8" xr:uid="{88CA8FE1-1EE7-43F7-B68C-97F732683303}"/>
+    <hyperlink ref="F40" r:id="rId9" xr:uid="{1FC1E3B9-88CF-43FC-A071-AA48E7C05E78}"/>
+    <hyperlink ref="F39" r:id="rId10" xr:uid="{115A8F90-5F25-49F7-B091-7E933F782B63}"/>
+    <hyperlink ref="BS41" r:id="rId11" xr:uid="{D521859E-FD3C-4036-902B-011CAFF82DC1}"/>
+    <hyperlink ref="BU41" r:id="rId12" xr:uid="{3CF69B76-2A0C-4F79-A3E3-ED222697DC52}"/>
+    <hyperlink ref="F42" r:id="rId13" xr:uid="{9A1EC28A-A256-4B40-B2C7-1472DDDDFA8A}"/>
+    <hyperlink ref="F43" r:id="rId14" xr:uid="{61095286-9BF8-473F-9D28-6346EED8AE04}"/>
+    <hyperlink ref="F44" r:id="rId15" xr:uid="{B45D2FAE-E215-4BE1-9874-E325BAF9C7F4}"/>
+    <hyperlink ref="BF45" r:id="rId16" xr:uid="{14C25E77-F645-4DDA-8E89-5F05454FA784}"/>
+    <hyperlink ref="BF46" r:id="rId17" xr:uid="{6A156A81-D2AB-481C-AE1E-982B2AFF941D}"/>
+    <hyperlink ref="BF47" r:id="rId18" xr:uid="{6FF3B2A5-29F8-4063-8E70-87A8855AC718}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/DryBar/DryBarTestData.xlsx
+++ b/src/test/resources/TestData/DryBar/DryBarTestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134BD324-113F-4825-99C8-7BAA710650C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C225BAD-3ECB-4C87-8631-C42A825DDDAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="239">
   <si>
     <t>UserName</t>
   </si>
@@ -236,9 +236,6 @@
     <t>ShippingAddress</t>
   </si>
   <si>
-    <t>yoga.manoj6@gmail.com</t>
-  </si>
-  <si>
     <t>LotusWave</t>
   </si>
   <si>
@@ -275,9 +272,6 @@
     <t>4444444444444448</t>
   </si>
   <si>
-    <t>xshzsmsmstzenzojra@mhzayt.online</t>
-  </si>
-  <si>
     <t>InvalidPaymentDetails</t>
   </si>
   <si>
@@ -398,21 +392,12 @@
     <t>5500005555555559</t>
   </si>
   <si>
-    <t>TESTINGQA</t>
-  </si>
-  <si>
-    <t>yoga.manoj@gmail.com</t>
-  </si>
-  <si>
     <t>GuestEmail</t>
   </si>
   <si>
     <t>SelectsortOptions</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
     <t>Best Sellers</t>
   </si>
   <si>
@@ -468,9 +453,6 @@
   </si>
   <si>
     <t>HowToInspoMegaMenu</t>
-  </si>
-  <si>
-    <t>Gift Kits,Gift Cards,Gifts Under $50,Gifts Under $100,Gifts Test Category</t>
   </si>
   <si>
     <t>Videos,Articles,Gallery,Glossary</t>
@@ -615,9 +597,6 @@
     <t>vraikanti@helenoftroy.com</t>
   </si>
   <si>
-    <t>yoga.manoj7@gmail.com</t>
-  </si>
-  <si>
     <t>54870 Erromanga Ave</t>
   </si>
   <si>
@@ -711,7 +690,61 @@
     <t>Non-POBoxwithPuertoRico</t>
   </si>
   <si>
+    <t>QATEST</t>
+  </si>
+  <si>
+    <t>QATESTING</t>
+  </si>
+  <si>
+    <t>Hairtype</t>
+  </si>
+  <si>
+    <t>Curly</t>
+  </si>
+  <si>
+    <t>Gift Kits,Gift Cards,Gifts Under $100,Gifts Under $35</t>
+  </si>
+  <si>
+    <t>raikanti.prasad906@gmail.com</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
     <t>QA.Testing@gmail.com</t>
+  </si>
+  <si>
+    <t>Prasad@123</t>
+  </si>
+  <si>
+    <t>NewProductDetails</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Scent</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>ProductQuantity</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>Full Size: 130g/4.6 oz.</t>
+  </si>
+  <si>
+    <t>Drybar QA</t>
+  </si>
+  <si>
+    <t>NewproductName</t>
+  </si>
+  <si>
+    <t>Original</t>
   </si>
 </sst>
 </file>
@@ -722,7 +755,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="165" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -769,6 +802,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -819,7 +858,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -867,6 +906,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1148,80 +1188,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BW47"/>
+  <dimension ref="A1:CC48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7265625" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="32.26953125" customWidth="1"/>
-    <col min="9" max="9" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.453125" customWidth="1"/>
-    <col min="11" max="12" width="28.26953125" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="32.28515625" customWidth="1"/>
+    <col min="9" max="9" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.42578125" customWidth="1"/>
+    <col min="11" max="12" width="28.28515625" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" customWidth="1"/>
-    <col min="16" max="16" width="18.26953125" customWidth="1"/>
-    <col min="17" max="17" width="16.1796875" customWidth="1"/>
-    <col min="18" max="18" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.1796875" customWidth="1"/>
-    <col min="20" max="20" width="26.453125" customWidth="1"/>
-    <col min="21" max="21" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="32.1796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="61.1796875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="27.26953125" customWidth="1"/>
-    <col min="26" max="26" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="60.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" customWidth="1"/>
+    <col min="16" max="16" width="18.28515625" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.140625" customWidth="1"/>
+    <col min="20" max="20" width="26.42578125" customWidth="1"/>
+    <col min="21" max="21" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="27.28515625" customWidth="1"/>
+    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="60.7109375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.7265625" customWidth="1"/>
-    <col min="38" max="38" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="21.1796875" customWidth="1"/>
-    <col min="40" max="40" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="35.453125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="27.26953125" customWidth="1"/>
+    <col min="30" max="30" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.7109375" customWidth="1"/>
+    <col min="38" max="38" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="21.140625" customWidth="1"/>
+    <col min="40" max="40" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="27.28515625" customWidth="1"/>
     <col min="50" max="50" width="24" customWidth="1"/>
-    <col min="51" max="51" width="17.54296875" customWidth="1"/>
-    <col min="52" max="52" width="21.1796875" customWidth="1"/>
-    <col min="53" max="53" width="13.26953125" customWidth="1"/>
-    <col min="54" max="54" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="33.453125" customWidth="1"/>
-    <col min="56" max="56" width="29.453125" customWidth="1"/>
-    <col min="57" max="57" width="26" customWidth="1"/>
-    <col min="58" max="58" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="64" max="65" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="102.453125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="39.7265625" customWidth="1"/>
-    <col min="69" max="69" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="17.5703125" customWidth="1"/>
+    <col min="52" max="52" width="21.140625" customWidth="1"/>
+    <col min="53" max="53" width="13.28515625" customWidth="1"/>
+    <col min="54" max="54" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="33.42578125" customWidth="1"/>
+    <col min="56" max="57" width="29.42578125" customWidth="1"/>
+    <col min="58" max="58" width="26" customWidth="1"/>
+    <col min="59" max="59" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="65" max="66" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="102.42578125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="39.7109375" customWidth="1"/>
+    <col min="70" max="70" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="18" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="20" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:81" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
@@ -1250,7 +1294,7 @@
         <v>11</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>21</v>
@@ -1292,19 +1336,19 @@
         <v>67</v>
       </c>
       <c r="X1" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Z1" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA1" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="Z1" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>90</v>
-      </c>
       <c r="AB1" s="16" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="AC1" s="10" t="s">
         <v>18</v>
@@ -1367,96 +1411,114 @@
         <v>56</v>
       </c>
       <c r="AW1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX1" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="AX1" s="10" t="s">
+      <c r="AY1" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AY1" s="10" t="s">
+      <c r="AZ1" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="AZ1" s="10" t="s">
+      <c r="BA1" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="BA1" s="10" t="s">
+      <c r="BB1" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="BB1" s="10" t="s">
-        <v>101</v>
-      </c>
       <c r="BC1" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="BD1" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BE1" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="BF1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="BF1" s="10" t="s">
+      <c r="BG1" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="BH1" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="BI1" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="BJ1" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="BK1" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="BG1" s="10" t="s">
+      <c r="BL1" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="BM1" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="BH1" s="10" t="s">
+      <c r="BN1" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="BI1" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="BJ1" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="BK1" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="BL1" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="BM1" s="10" t="s">
+      <c r="BO1" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="BN1" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="BO1" s="10" t="s">
-        <v>152</v>
-      </c>
       <c r="BP1" s="10" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="BQ1" s="10" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="BR1" s="10" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="BS1" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="BT1" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="BU1" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="BV1" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="BW1" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="BX1" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="BT1" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="BU1" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="BV1" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="BW1" s="10" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="2" spans="1:75" x14ac:dyDescent="0.35">
+      <c r="BY1" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="BZ1" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="CA1" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="CB1" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="CC1" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>227</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1478,7 +1540,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:75" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>67</v>
       </c>
@@ -1496,31 +1558,31 @@
       <c r="P3" s="1"/>
       <c r="V3" s="5"/>
       <c r="W3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="AW3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AX3" t="s">
         <v>92</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AY3" t="s">
         <v>94</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="AZ3" t="s">
         <v>96</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BA3" t="s">
         <v>98</v>
       </c>
-      <c r="BA3" t="s">
-        <v>100</v>
-      </c>
       <c r="BB3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="BC3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:75" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1537,7 +1599,7 @@
         <v>20</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P4" s="1">
         <v>2025</v>
@@ -1551,7 +1613,7 @@
       <c r="V4" s="5"/>
       <c r="W4" s="3"/>
     </row>
-    <row r="5" spans="1:75" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -1563,20 +1625,20 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
+        <v>225</v>
+      </c>
+      <c r="G5" t="s">
         <v>69</v>
       </c>
-      <c r="G5" t="s">
-        <v>70</v>
-      </c>
       <c r="H5" s="19" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="J5" s="21"/>
       <c r="K5" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="L5" s="20">
         <v>75163</v>
@@ -1589,27 +1651,27 @@
       <c r="AC5" s="3">
         <v>123</v>
       </c>
-      <c r="BF5" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:75" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BG5" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:81" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>19</v>
@@ -1628,7 +1690,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1645,29 +1707,29 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
         <v>73</v>
       </c>
-      <c r="C8" t="s">
+      <c r="F8" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="S8" t="s">
+        <v>75</v>
+      </c>
+      <c r="T8" t="s">
         <v>76</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>77</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>78</v>
-      </c>
-      <c r="V8" t="s">
-        <v>79</v>
       </c>
       <c r="AD8" t="s">
         <v>25</v>
@@ -1688,9 +1750,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -1710,9 +1772,9 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C10" s="1"/>
       <c r="F10" s="1"/>
@@ -1727,7 +1789,7 @@
         <v>20</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P10" s="1">
         <v>2025</v>
@@ -1742,12 +1804,12 @@
       <c r="W10" s="3"/>
       <c r="AA10" s="7"/>
     </row>
-    <row r="11" spans="1:75" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:81" s="7" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="X11" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AA11"/>
       <c r="AK11" s="7" t="s">
@@ -1787,20 +1849,20 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Y12" s="11" t="s">
-        <v>103</v>
+        <v>220</v>
       </c>
       <c r="Z12" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="Y13" s="11">
         <v>1515</v>
@@ -1809,42 +1871,45 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="14" spans="1:75" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AA14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.35">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="AA15" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:75" ht="72.5" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:81" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD16" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="BE16" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="BF16" t="s">
         <v>109</v>
       </c>
-      <c r="BD16" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="BE16" t="s">
+    </row>
+    <row r="17" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>113</v>
       </c>
       <c r="N17" t="s">
         <v>20</v>
       </c>
       <c r="O17" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P17" s="2">
         <v>2025</v>
@@ -1856,470 +1921,470 @@
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:67" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:68" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O18" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P18" s="2">
         <v>2025</v>
       </c>
       <c r="Q18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R18" s="3">
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:67" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:68" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P19" s="2">
         <v>2025</v>
       </c>
       <c r="Q19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="R19" s="3">
         <v>1234</v>
       </c>
     </row>
-    <row r="20" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O20" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P20" s="2">
         <v>2025</v>
       </c>
       <c r="Q20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R20" s="3">
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:67" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>122</v>
+      </c>
+      <c r="O21" s="11"/>
+      <c r="BH21" t="s">
+        <v>226</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>123</v>
+      </c>
+      <c r="BJ21" t="s">
+        <v>124</v>
+      </c>
+      <c r="BK21" t="s">
+        <v>125</v>
+      </c>
+      <c r="BL21" t="s">
         <v>126</v>
       </c>
-      <c r="O21" s="11"/>
-      <c r="BG21" t="s">
-        <v>127</v>
-      </c>
-      <c r="BH21" t="s">
-        <v>128</v>
-      </c>
-      <c r="BI21" t="s">
+      <c r="BM21" t="s">
         <v>129</v>
       </c>
-      <c r="BJ21" t="s">
+      <c r="BN21" t="s">
         <v>130</v>
       </c>
-      <c r="BK21" t="s">
+    </row>
+    <row r="22" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>132</v>
+      </c>
+      <c r="BO22" t="s">
         <v>131</v>
       </c>
-      <c r="BL21" t="s">
+    </row>
+    <row r="23" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>135</v>
+      </c>
+      <c r="BO23" t="s">
         <v>134</v>
       </c>
-      <c r="BM21" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    </row>
+    <row r="24" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>136</v>
+      </c>
+      <c r="BO24" t="s">
         <v>137</v>
       </c>
-      <c r="BN22" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    </row>
+    <row r="25" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>138</v>
+      </c>
+      <c r="BO25" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>139</v>
+      </c>
+      <c r="BO26" t="s">
         <v>140</v>
       </c>
-      <c r="BN23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="24" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    </row>
+    <row r="27" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>141</v>
       </c>
-      <c r="BN24" t="s">
+      <c r="BO27" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row r="28" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>143</v>
       </c>
-      <c r="BN25" t="s">
+      <c r="D28" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" t="s">
+        <v>186</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BP28" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>144</v>
-      </c>
-      <c r="BN26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="27" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>146</v>
-      </c>
-      <c r="BN27" t="s">
+    <row r="29" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="28" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="B29" t="s">
         <v>149</v>
       </c>
-      <c r="D28" t="s">
+      <c r="C29" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>151</v>
       </c>
-      <c r="E28" t="s">
-        <v>192</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="BO28" t="s">
+      <c r="BO30" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>154</v>
+      </c>
+      <c r="BO31" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="29" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>154</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="32" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>156</v>
+      </c>
+      <c r="BO32" t="s">
         <v>155</v>
       </c>
-      <c r="C29" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="30" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+    </row>
+    <row r="33" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>157</v>
       </c>
-      <c r="BN30" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="31" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>160</v>
-      </c>
-      <c r="BN31" t="s">
+      <c r="AB33" s="17" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="32" spans="1:67" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+    <row r="34" spans="1:81" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>178</v>
+      </c>
+      <c r="BQ34" s="18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>162</v>
       </c>
-      <c r="BN32" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="33" spans="1:75" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="W35" t="s">
         <v>163</v>
       </c>
-      <c r="AB33" s="17" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="34" spans="1:75" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>184</v>
-      </c>
-      <c r="BP34" s="18" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="35" spans="1:75" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>168</v>
-      </c>
-      <c r="W35" t="s">
+    </row>
+    <row r="36" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="36" spans="1:75" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>175</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="E36" t="s">
         <v>8</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G36" t="s">
         <v>69</v>
       </c>
-      <c r="G36" t="s">
-        <v>70</v>
-      </c>
       <c r="H36" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="I36" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="K36" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L36">
         <v>19702</v>
       </c>
       <c r="M36" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>187</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>172</v>
+      </c>
+      <c r="W38" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="37" spans="1:75" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+    <row r="39" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D39" t="s">
         <v>193</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="38" spans="1:75" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>178</v>
-      </c>
-      <c r="W38" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="39" spans="1:75" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>180</v>
-      </c>
-      <c r="D39" t="s">
-        <v>200</v>
-      </c>
       <c r="E39" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G39" t="s">
         <v>69</v>
       </c>
-      <c r="G39" t="s">
-        <v>70</v>
-      </c>
       <c r="H39" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="I39" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="K39" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="L39" s="11">
         <v>74058</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="40" spans="1:75" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E40" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="G40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="I40" s="19" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="J40" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="K40" t="s">
         <v>191</v>
-      </c>
-      <c r="K40" t="s">
-        <v>198</v>
       </c>
       <c r="L40" s="20">
         <v>99611</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="Y40" s="4"/>
       <c r="Z40" s="2"/>
       <c r="AC40" s="3">
         <v>123</v>
       </c>
-      <c r="BF40" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="41" spans="1:75" x14ac:dyDescent="0.35">
+      <c r="BG40" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="41" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>199</v>
+      </c>
+      <c r="BR41">
+        <v>399</v>
+      </c>
+      <c r="BS41" t="s">
+        <v>145</v>
+      </c>
+      <c r="BT41" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BU41" t="s">
         <v>206</v>
       </c>
-      <c r="BQ41">
-        <v>399</v>
-      </c>
-      <c r="BR41" t="s">
-        <v>151</v>
-      </c>
-      <c r="BS41" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="BT41" t="s">
-        <v>213</v>
-      </c>
-      <c r="BU41" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="BV41" t="s">
-        <v>215</v>
+      <c r="BV41" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="BW41" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="42" spans="1:75" x14ac:dyDescent="0.35">
+        <v>208</v>
+      </c>
+      <c r="BX41" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D42" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E42" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F42" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G42" t="s">
         <v>69</v>
       </c>
-      <c r="G42" t="s">
-        <v>70</v>
-      </c>
       <c r="H42" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="I42" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="K42" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="L42" s="11">
         <v>74058</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="43" spans="1:75" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D43" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E43" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F43" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G43" t="s">
         <v>69</v>
       </c>
-      <c r="G43" t="s">
-        <v>70</v>
-      </c>
       <c r="H43" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="I43" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="K43" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="L43" s="11">
         <v>74058</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="44" spans="1:75" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D44" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E44" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F44" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G44" t="s">
         <v>69</v>
       </c>
-      <c r="G44" t="s">
-        <v>70</v>
-      </c>
       <c r="H44" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="I44" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="K44" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="L44" s="11">
         <v>74058</v>
       </c>
       <c r="M44" s="11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="45" spans="1:75" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" t="s">
@@ -2329,20 +2394,20 @@
         <v>8</v>
       </c>
       <c r="F45" t="s">
+        <v>225</v>
+      </c>
+      <c r="G45" t="s">
         <v>69</v>
       </c>
-      <c r="G45" t="s">
-        <v>70</v>
-      </c>
       <c r="H45" s="19" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="I45" s="19" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="J45" s="21"/>
       <c r="K45" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="L45" s="20">
         <v>75163</v>
@@ -2355,13 +2420,13 @@
       <c r="AC45" s="3">
         <v>123</v>
       </c>
-      <c r="BF45" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="46" spans="1:75" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BG45" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="46" spans="1:81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" t="s">
@@ -2371,20 +2436,20 @@
         <v>8</v>
       </c>
       <c r="F46" t="s">
+        <v>225</v>
+      </c>
+      <c r="G46" t="s">
         <v>69</v>
       </c>
-      <c r="G46" t="s">
-        <v>70</v>
-      </c>
       <c r="H46" s="19" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="I46" s="19" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="J46" s="21"/>
       <c r="K46" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="L46" s="20">
         <v>75163</v>
@@ -2397,13 +2462,13 @@
       <c r="AC46" s="3">
         <v>123</v>
       </c>
-      <c r="BF46" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="47" spans="1:75" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BG46" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" t="s">
@@ -2412,21 +2477,21 @@
       <c r="E47" t="s">
         <v>8</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G47" t="s">
         <v>69</v>
       </c>
-      <c r="G47" t="s">
-        <v>70</v>
-      </c>
       <c r="H47" s="19" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="I47" s="19" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="J47" s="21"/>
       <c r="K47" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="L47" s="20">
         <v>75163</v>
@@ -2439,32 +2504,55 @@
       <c r="AC47" s="3">
         <v>123</v>
       </c>
-      <c r="BF47" s="1" t="s">
-        <v>124</v>
+      <c r="BG47" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="48" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>229</v>
+      </c>
+      <c r="BY48" t="s">
+        <v>236</v>
+      </c>
+      <c r="BZ48" t="s">
+        <v>235</v>
+      </c>
+      <c r="CA48" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="CB48" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="CC48">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{0EE2B951-04E0-4C37-AD27-41ABE90F13C8}"/>
-    <hyperlink ref="C2" r:id="rId2" display="drybar@1234" xr:uid="{1E2EF8D6-0728-4603-8801-14D9C148AAC7}"/>
-    <hyperlink ref="BF5" r:id="rId3" xr:uid="{7EAA2625-5DF5-4A43-BFD0-B64018446D5D}"/>
+    <hyperlink ref="C2" r:id="rId2" display="Rajkumar@1155" xr:uid="{1E2EF8D6-0728-4603-8801-14D9C148AAC7}"/>
+    <hyperlink ref="BG5" r:id="rId3" xr:uid="{7EAA2625-5DF5-4A43-BFD0-B64018446D5D}"/>
     <hyperlink ref="F28" r:id="rId4" xr:uid="{85702DA2-6B99-4F4A-9AA2-9F1D91BC8E3A}"/>
     <hyperlink ref="F37" r:id="rId5" xr:uid="{40C27E8C-3B81-4D20-A6BC-3DB1743540AE}"/>
     <hyperlink ref="C37" r:id="rId6" display="drybar@1234" xr:uid="{BF124FBE-91BB-4F73-8DBB-84F5B8683E1F}"/>
-    <hyperlink ref="F2" r:id="rId7" xr:uid="{568174ED-A276-4261-81EE-07E533AC6D06}"/>
-    <hyperlink ref="BF40" r:id="rId8" xr:uid="{88CA8FE1-1EE7-43F7-B68C-97F732683303}"/>
-    <hyperlink ref="F40" r:id="rId9" xr:uid="{1FC1E3B9-88CF-43FC-A071-AA48E7C05E78}"/>
-    <hyperlink ref="F39" r:id="rId10" xr:uid="{115A8F90-5F25-49F7-B091-7E933F782B63}"/>
-    <hyperlink ref="BS41" r:id="rId11" xr:uid="{D521859E-FD3C-4036-902B-011CAFF82DC1}"/>
-    <hyperlink ref="BU41" r:id="rId12" xr:uid="{3CF69B76-2A0C-4F79-A3E3-ED222697DC52}"/>
-    <hyperlink ref="F42" r:id="rId13" xr:uid="{9A1EC28A-A256-4B40-B2C7-1472DDDDFA8A}"/>
-    <hyperlink ref="F43" r:id="rId14" xr:uid="{61095286-9BF8-473F-9D28-6346EED8AE04}"/>
-    <hyperlink ref="F44" r:id="rId15" xr:uid="{B45D2FAE-E215-4BE1-9874-E325BAF9C7F4}"/>
-    <hyperlink ref="BF45" r:id="rId16" xr:uid="{14C25E77-F645-4DDA-8E89-5F05454FA784}"/>
-    <hyperlink ref="BF46" r:id="rId17" xr:uid="{6A156A81-D2AB-481C-AE1E-982B2AFF941D}"/>
-    <hyperlink ref="BF47" r:id="rId18" xr:uid="{6FF3B2A5-29F8-4063-8E70-87A8855AC718}"/>
+    <hyperlink ref="BG40" r:id="rId7" xr:uid="{88CA8FE1-1EE7-43F7-B68C-97F732683303}"/>
+    <hyperlink ref="F40" r:id="rId8" xr:uid="{1FC1E3B9-88CF-43FC-A071-AA48E7C05E78}"/>
+    <hyperlink ref="F39" r:id="rId9" display="yoga.manoj6@gmail.com" xr:uid="{115A8F90-5F25-49F7-B091-7E933F782B63}"/>
+    <hyperlink ref="BT41" r:id="rId10" xr:uid="{D521859E-FD3C-4036-902B-011CAFF82DC1}"/>
+    <hyperlink ref="BV41" r:id="rId11" xr:uid="{3CF69B76-2A0C-4F79-A3E3-ED222697DC52}"/>
+    <hyperlink ref="F42" r:id="rId12" display="yoga.manoj6@gmail.com" xr:uid="{9A1EC28A-A256-4B40-B2C7-1472DDDDFA8A}"/>
+    <hyperlink ref="F43" r:id="rId13" display="yoga.manoj6@gmail.com" xr:uid="{61095286-9BF8-473F-9D28-6346EED8AE04}"/>
+    <hyperlink ref="F44" r:id="rId14" display="yoga.manoj6@gmail.com" xr:uid="{B45D2FAE-E215-4BE1-9874-E325BAF9C7F4}"/>
+    <hyperlink ref="BG45" r:id="rId15" xr:uid="{14C25E77-F645-4DDA-8E89-5F05454FA784}"/>
+    <hyperlink ref="BG46" r:id="rId16" xr:uid="{6A156A81-D2AB-481C-AE1E-982B2AFF941D}"/>
+    <hyperlink ref="BG47" r:id="rId17" xr:uid="{6FF3B2A5-29F8-4063-8E70-87A8855AC718}"/>
+    <hyperlink ref="F36" r:id="rId18" xr:uid="{81F356DF-5BE2-4BA2-8CF2-EA86237D44D0}"/>
+    <hyperlink ref="F47" r:id="rId19" display="raikanti.prasad906@gmail.coma.manoj6@gmail.com" xr:uid="{3350012F-B83F-4459-920D-B43C2D9B639D}"/>
+    <hyperlink ref="F2" r:id="rId20" xr:uid="{8664094E-880D-411A-9CED-16762BE15860}"/>
+    <hyperlink ref="C29" r:id="rId21" xr:uid="{CBE671E4-46B4-415B-8E4C-3A352D473E9F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/DryBar/DryBarTestData.xlsx
+++ b/src/test/resources/TestData/DryBar/DryBarTestData.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C225BAD-3ECB-4C87-8631-C42A825DDDAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E439999D-2A9A-4716-87B7-FF3C4C5FAF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="241">
   <si>
     <t>UserName</t>
   </si>
@@ -745,6 +745,12 @@
   </si>
   <si>
     <t>Original</t>
+  </si>
+  <si>
+    <t>TaxShippingAddress</t>
+  </si>
+  <si>
+    <t>Arizona</t>
   </si>
 </sst>
 </file>
@@ -1188,10 +1194,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CC48"/>
+  <dimension ref="A1:CC49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="G19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2108,7 +2114,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>157</v>
       </c>
@@ -2116,7 +2122,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="34" spans="1:81" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>178</v>
       </c>
@@ -2124,108 +2130,108 @@
         <v>182</v>
       </c>
     </row>
-    <row r="35" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>239</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" t="s">
+        <v>197</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" t="s">
+        <v>168</v>
+      </c>
+      <c r="I35" t="s">
+        <v>165</v>
+      </c>
+      <c r="K35" t="s">
+        <v>240</v>
+      </c>
+      <c r="L35">
+        <v>72729</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>162</v>
       </c>
-      <c r="W35" t="s">
+      <c r="W36" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="37" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>169</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" t="s">
+      <c r="C37" s="1"/>
+      <c r="D37" t="s">
         <v>197</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G37" t="s">
         <v>69</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H37" t="s">
         <v>168</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I37" t="s">
         <v>165</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K37" t="s">
         <v>166</v>
       </c>
-      <c r="L36">
+      <c r="L37">
         <v>19702</v>
       </c>
-      <c r="M36" s="11" t="s">
+      <c r="M37" s="11" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="37" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="38" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>187</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="39" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>172</v>
       </c>
-      <c r="W38" t="s">
+      <c r="W39" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="39" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="40" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>174</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" t="s">
         <v>193</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E40" t="s">
         <v>196</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G39" t="s">
-        <v>69</v>
-      </c>
-      <c r="H39" t="s">
-        <v>175</v>
-      </c>
-      <c r="I39" t="s">
-        <v>176</v>
-      </c>
-      <c r="K39" t="s">
-        <v>177</v>
-      </c>
-      <c r="L39" s="11">
-        <v>74058</v>
-      </c>
-      <c r="M39" s="11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="40" spans="1:81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>184</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" t="s">
-        <v>194</v>
-      </c>
-      <c r="E40" t="s">
-        <v>195</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>225</v>
@@ -2233,94 +2239,95 @@
       <c r="G40" t="s">
         <v>69</v>
       </c>
-      <c r="H40" s="22" t="s">
+      <c r="H40" t="s">
+        <v>175</v>
+      </c>
+      <c r="I40" t="s">
+        <v>176</v>
+      </c>
+      <c r="K40" t="s">
+        <v>177</v>
+      </c>
+      <c r="L40" s="11">
+        <v>74058</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" spans="1:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>184</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E41" t="s">
+        <v>195</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G41" t="s">
+        <v>69</v>
+      </c>
+      <c r="H41" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="I40" s="19" t="s">
+      <c r="I41" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="J40" s="19" t="s">
+      <c r="J41" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K41" t="s">
         <v>191</v>
       </c>
-      <c r="L40" s="20">
+      <c r="L41" s="20">
         <v>99611</v>
       </c>
-      <c r="M40" s="11" t="s">
+      <c r="M41" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="Y40" s="4"/>
-      <c r="Z40" s="2"/>
-      <c r="AC40" s="3">
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="2"/>
+      <c r="AC41" s="3">
         <v>123</v>
       </c>
-      <c r="BG40" s="1" t="s">
+      <c r="BG41" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="41" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="42" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>199</v>
       </c>
-      <c r="BR41">
+      <c r="BR42">
         <v>399</v>
       </c>
-      <c r="BS41" t="s">
+      <c r="BS42" t="s">
         <v>145</v>
       </c>
-      <c r="BT41" s="1" t="s">
+      <c r="BT42" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="BU41" t="s">
+      <c r="BU42" t="s">
         <v>206</v>
       </c>
-      <c r="BV41" s="1" t="s">
+      <c r="BV42" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="BW41" t="s">
+      <c r="BW42" t="s">
         <v>208</v>
       </c>
-      <c r="BX41" t="s">
+      <c r="BX42" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="42" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="43" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>211</v>
-      </c>
-      <c r="D42" t="s">
-        <v>193</v>
-      </c>
-      <c r="E42" t="s">
-        <v>196</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G42" t="s">
-        <v>69</v>
-      </c>
-      <c r="H42" t="s">
-        <v>175</v>
-      </c>
-      <c r="I42" t="s">
-        <v>176</v>
-      </c>
-      <c r="K42" t="s">
-        <v>212</v>
-      </c>
-      <c r="L42" s="11">
-        <v>74058</v>
-      </c>
-      <c r="M42" s="11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="43" spans="1:81" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>213</v>
       </c>
       <c r="D43" t="s">
         <v>193</v>
@@ -2341,7 +2348,7 @@
         <v>176</v>
       </c>
       <c r="K43" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="L43" s="11">
         <v>74058</v>
@@ -2350,9 +2357,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="44" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D44" t="s">
         <v>193</v>
@@ -2373,7 +2380,7 @@
         <v>176</v>
       </c>
       <c r="K44" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L44" s="11">
         <v>74058</v>
@@ -2382,51 +2389,41 @@
         <v>167</v>
       </c>
     </row>
-    <row r="45" spans="1:81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>217</v>
-      </c>
-      <c r="C45" s="1"/>
+        <v>215</v>
+      </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>193</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" t="s">
+        <v>196</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>225</v>
       </c>
       <c r="G45" t="s">
         <v>69</v>
       </c>
-      <c r="H45" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="I45" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="J45" s="21"/>
+      <c r="H45" t="s">
+        <v>175</v>
+      </c>
+      <c r="I45" t="s">
+        <v>176</v>
+      </c>
       <c r="K45" t="s">
-        <v>212</v>
-      </c>
-      <c r="L45" s="20">
-        <v>75163</v>
-      </c>
-      <c r="M45">
-        <v>8500563032</v>
-      </c>
-      <c r="Y45" s="4"/>
-      <c r="Z45" s="2"/>
-      <c r="AC45" s="3">
-        <v>123</v>
-      </c>
-      <c r="BG45" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="46" spans="1:81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="L45" s="11">
+        <v>74058</v>
+      </c>
+      <c r="M45" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="1:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" t="s">
@@ -2449,7 +2446,7 @@
       </c>
       <c r="J46" s="21"/>
       <c r="K46" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="L46" s="20">
         <v>75163</v>
@@ -2466,9 +2463,9 @@
         <v>225</v>
       </c>
     </row>
-    <row r="47" spans="1:81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" t="s">
@@ -2477,7 +2474,7 @@
       <c r="E47" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" t="s">
         <v>225</v>
       </c>
       <c r="G47" t="s">
@@ -2491,7 +2488,7 @@
       </c>
       <c r="J47" s="21"/>
       <c r="K47" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L47" s="20">
         <v>75163</v>
@@ -2508,23 +2505,65 @@
         <v>225</v>
       </c>
     </row>
-    <row r="48" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>219</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G48" t="s">
+        <v>69</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="I48" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="J48" s="21"/>
+      <c r="K48" t="s">
+        <v>216</v>
+      </c>
+      <c r="L48" s="20">
+        <v>75163</v>
+      </c>
+      <c r="M48">
+        <v>8500563032</v>
+      </c>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="2"/>
+      <c r="AC48" s="3">
+        <v>123</v>
+      </c>
+      <c r="BG48" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="49" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>229</v>
       </c>
-      <c r="BY48" t="s">
+      <c r="BY49" t="s">
         <v>236</v>
       </c>
-      <c r="BZ48" t="s">
+      <c r="BZ49" t="s">
         <v>235</v>
       </c>
-      <c r="CA48" s="23" t="s">
+      <c r="CA49" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="CB48" s="11" t="s">
+      <c r="CB49" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="CC48">
+      <c r="CC49">
         <v>100</v>
       </c>
     </row>
@@ -2534,25 +2573,26 @@
     <hyperlink ref="C2" r:id="rId2" display="Rajkumar@1155" xr:uid="{1E2EF8D6-0728-4603-8801-14D9C148AAC7}"/>
     <hyperlink ref="BG5" r:id="rId3" xr:uid="{7EAA2625-5DF5-4A43-BFD0-B64018446D5D}"/>
     <hyperlink ref="F28" r:id="rId4" xr:uid="{85702DA2-6B99-4F4A-9AA2-9F1D91BC8E3A}"/>
-    <hyperlink ref="F37" r:id="rId5" xr:uid="{40C27E8C-3B81-4D20-A6BC-3DB1743540AE}"/>
-    <hyperlink ref="C37" r:id="rId6" display="drybar@1234" xr:uid="{BF124FBE-91BB-4F73-8DBB-84F5B8683E1F}"/>
-    <hyperlink ref="BG40" r:id="rId7" xr:uid="{88CA8FE1-1EE7-43F7-B68C-97F732683303}"/>
-    <hyperlink ref="F40" r:id="rId8" xr:uid="{1FC1E3B9-88CF-43FC-A071-AA48E7C05E78}"/>
-    <hyperlink ref="F39" r:id="rId9" display="yoga.manoj6@gmail.com" xr:uid="{115A8F90-5F25-49F7-B091-7E933F782B63}"/>
-    <hyperlink ref="BT41" r:id="rId10" xr:uid="{D521859E-FD3C-4036-902B-011CAFF82DC1}"/>
-    <hyperlink ref="BV41" r:id="rId11" xr:uid="{3CF69B76-2A0C-4F79-A3E3-ED222697DC52}"/>
-    <hyperlink ref="F42" r:id="rId12" display="yoga.manoj6@gmail.com" xr:uid="{9A1EC28A-A256-4B40-B2C7-1472DDDDFA8A}"/>
-    <hyperlink ref="F43" r:id="rId13" display="yoga.manoj6@gmail.com" xr:uid="{61095286-9BF8-473F-9D28-6346EED8AE04}"/>
-    <hyperlink ref="F44" r:id="rId14" display="yoga.manoj6@gmail.com" xr:uid="{B45D2FAE-E215-4BE1-9874-E325BAF9C7F4}"/>
-    <hyperlink ref="BG45" r:id="rId15" xr:uid="{14C25E77-F645-4DDA-8E89-5F05454FA784}"/>
-    <hyperlink ref="BG46" r:id="rId16" xr:uid="{6A156A81-D2AB-481C-AE1E-982B2AFF941D}"/>
-    <hyperlink ref="BG47" r:id="rId17" xr:uid="{6FF3B2A5-29F8-4063-8E70-87A8855AC718}"/>
-    <hyperlink ref="F36" r:id="rId18" xr:uid="{81F356DF-5BE2-4BA2-8CF2-EA86237D44D0}"/>
-    <hyperlink ref="F47" r:id="rId19" display="raikanti.prasad906@gmail.coma.manoj6@gmail.com" xr:uid="{3350012F-B83F-4459-920D-B43C2D9B639D}"/>
+    <hyperlink ref="F38" r:id="rId5" xr:uid="{40C27E8C-3B81-4D20-A6BC-3DB1743540AE}"/>
+    <hyperlink ref="C38" r:id="rId6" display="drybar@1234" xr:uid="{BF124FBE-91BB-4F73-8DBB-84F5B8683E1F}"/>
+    <hyperlink ref="BG41" r:id="rId7" xr:uid="{88CA8FE1-1EE7-43F7-B68C-97F732683303}"/>
+    <hyperlink ref="F41" r:id="rId8" xr:uid="{1FC1E3B9-88CF-43FC-A071-AA48E7C05E78}"/>
+    <hyperlink ref="F40" r:id="rId9" display="yoga.manoj6@gmail.com" xr:uid="{115A8F90-5F25-49F7-B091-7E933F782B63}"/>
+    <hyperlink ref="BT42" r:id="rId10" xr:uid="{D521859E-FD3C-4036-902B-011CAFF82DC1}"/>
+    <hyperlink ref="BV42" r:id="rId11" xr:uid="{3CF69B76-2A0C-4F79-A3E3-ED222697DC52}"/>
+    <hyperlink ref="F43" r:id="rId12" display="yoga.manoj6@gmail.com" xr:uid="{9A1EC28A-A256-4B40-B2C7-1472DDDDFA8A}"/>
+    <hyperlink ref="F44" r:id="rId13" display="yoga.manoj6@gmail.com" xr:uid="{61095286-9BF8-473F-9D28-6346EED8AE04}"/>
+    <hyperlink ref="F45" r:id="rId14" display="yoga.manoj6@gmail.com" xr:uid="{B45D2FAE-E215-4BE1-9874-E325BAF9C7F4}"/>
+    <hyperlink ref="BG46" r:id="rId15" xr:uid="{14C25E77-F645-4DDA-8E89-5F05454FA784}"/>
+    <hyperlink ref="BG47" r:id="rId16" xr:uid="{6A156A81-D2AB-481C-AE1E-982B2AFF941D}"/>
+    <hyperlink ref="BG48" r:id="rId17" xr:uid="{6FF3B2A5-29F8-4063-8E70-87A8855AC718}"/>
+    <hyperlink ref="F37" r:id="rId18" xr:uid="{81F356DF-5BE2-4BA2-8CF2-EA86237D44D0}"/>
+    <hyperlink ref="F48" r:id="rId19" display="raikanti.prasad906@gmail.coma.manoj6@gmail.com" xr:uid="{3350012F-B83F-4459-920D-B43C2D9B639D}"/>
     <hyperlink ref="F2" r:id="rId20" xr:uid="{8664094E-880D-411A-9CED-16762BE15860}"/>
     <hyperlink ref="C29" r:id="rId21" xr:uid="{CBE671E4-46B4-415B-8E4C-3A352D473E9F}"/>
+    <hyperlink ref="F35" r:id="rId22" xr:uid="{C228D363-CFA1-48C1-8328-0F96697D7CBE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/DryBar/DryBarTestData.xlsx
+++ b/src/test/resources/TestData/DryBar/DryBarTestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E439999D-2A9A-4716-87B7-FF3C4C5FAF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B22A8FF-9BEE-457F-B02D-6F152C241D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="257">
   <si>
     <t>UserName</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>cvv</t>
-  </si>
-  <si>
-    <t>California</t>
   </si>
   <si>
     <t>VISA</t>
@@ -242,9 +239,6 @@
     <t>BiillingAddress</t>
   </si>
   <si>
-    <t>Plat no2dream Valley</t>
-  </si>
-  <si>
     <t>Forgetpassoword</t>
   </si>
   <si>
@@ -359,9 +353,6 @@
     <t>The product is very Good</t>
   </si>
   <si>
-    <t>Nice Product. The Liquid glass smoothening shampoo is a lightweight, compact tool with all the power of a full-sized dryer, adorned in a chic, amethyst hue.</t>
-  </si>
-  <si>
     <t>CCVisa</t>
   </si>
   <si>
@@ -422,9 +413,6 @@
     <t>Price: high to low</t>
   </si>
   <si>
-    <t>Shampoos,Conditioners,Dry Shampoo,Styling,Color Care</t>
-  </si>
-  <si>
     <t>HairproductsMegaMenu</t>
   </si>
   <si>
@@ -558,9 +546,6 @@
   </si>
   <si>
     <t>Pawnee</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
   </si>
   <si>
     <t>TaxRate</t>
@@ -660,9 +645,6 @@
     <t>Month</t>
   </si>
   <si>
-    <t>Oct</t>
-  </si>
-  <si>
     <t>POBoxAddresswithAlaska</t>
   </si>
   <si>
@@ -751,6 +733,72 @@
   </si>
   <si>
     <t>Arizona</t>
+  </si>
+  <si>
+    <t>Conditioners,Dry Shampoo,Styling,Color Care</t>
+  </si>
+  <si>
+    <t>El Paso</t>
+  </si>
+  <si>
+    <t>Newtown Square</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>2 Dream Valley Dr</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>50677-0326</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>QA AUTOMATION TESTING 5</t>
+  </si>
+  <si>
+    <t>Giftcard3</t>
+  </si>
+  <si>
+    <t>Giftcard4</t>
+  </si>
+  <si>
+    <t>QA AUTOMATION TESTING 10</t>
+  </si>
+  <si>
+    <t>QA AUTOMATION TESTING 15</t>
+  </si>
+  <si>
+    <t>lorem ipsum dolor sit amet, consectetur adipiscing elit. Aliquam ullamcorper vehicula porta. Praesent sed nisl ante. Morbi ut efficitur metus, a consectetur neque. Ut ac hendrerit felis, vel vehicula tellus. Proin faucibus eget nulla euismod cursus. Maecenas quis est enim. Quisque dignissim arcu in magna finibus sodales. Aenean augue ante, vestibulum ac mattis sit amet, luctus ac erat. Phasellus nec felis dolor. Quisque congue dolor vel gravida aliquet. Nunc placerat sed nisl vitae consequat. Cras sed augue ac neque rutrum aliquam quis venenatis ipsum. Quisque lobortis, diam quis sollicitudin dignissim, tellus massa interdum lorem, vitae laoreet erat risus nec purus.</t>
+  </si>
+  <si>
+    <t>6901 Helen of Troy Ste A</t>
+  </si>
+  <si>
+    <t>79911-3049</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Tulsa</t>
+  </si>
+  <si>
+    <t>Fairbanks</t>
+  </si>
+  <si>
+    <t>United States Postal Service</t>
+  </si>
+  <si>
+    <t>Schofield Barracks</t>
   </si>
 </sst>
 </file>
@@ -1194,84 +1242,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CC49"/>
+  <dimension ref="A1:CC51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="32.28515625" customWidth="1"/>
-    <col min="9" max="9" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.42578125" customWidth="1"/>
-    <col min="11" max="12" width="28.28515625" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" customWidth="1"/>
-    <col min="16" max="16" width="18.28515625" customWidth="1"/>
-    <col min="17" max="17" width="16.140625" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.140625" customWidth="1"/>
-    <col min="20" max="20" width="26.42578125" customWidth="1"/>
-    <col min="21" max="21" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="61.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="27.28515625" customWidth="1"/>
-    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="32.33203125" customWidth="1"/>
+    <col min="9" max="9" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.44140625" customWidth="1"/>
+    <col min="11" max="12" width="28.33203125" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" customWidth="1"/>
+    <col min="16" max="16" width="18.33203125" customWidth="1"/>
+    <col min="17" max="17" width="16.109375" customWidth="1"/>
+    <col min="18" max="18" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.109375" customWidth="1"/>
+    <col min="20" max="20" width="26.44140625" customWidth="1"/>
+    <col min="21" max="21" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="61.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="27.33203125" customWidth="1"/>
+    <col min="26" max="26" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="60.6640625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.7109375" customWidth="1"/>
-    <col min="38" max="38" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="21.140625" customWidth="1"/>
-    <col min="40" max="40" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="27.28515625" customWidth="1"/>
+    <col min="30" max="30" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.6640625" customWidth="1"/>
+    <col min="38" max="38" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="21.109375" customWidth="1"/>
+    <col min="40" max="40" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="27.33203125" customWidth="1"/>
     <col min="50" max="50" width="24" customWidth="1"/>
-    <col min="51" max="51" width="17.5703125" customWidth="1"/>
-    <col min="52" max="52" width="21.140625" customWidth="1"/>
-    <col min="53" max="53" width="13.28515625" customWidth="1"/>
-    <col min="54" max="54" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="33.42578125" customWidth="1"/>
-    <col min="56" max="57" width="29.42578125" customWidth="1"/>
+    <col min="51" max="51" width="17.5546875" customWidth="1"/>
+    <col min="52" max="52" width="21.109375" customWidth="1"/>
+    <col min="53" max="53" width="13.33203125" customWidth="1"/>
+    <col min="54" max="54" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="33.44140625" customWidth="1"/>
+    <col min="56" max="57" width="29.44140625" customWidth="1"/>
     <col min="58" max="58" width="26" customWidth="1"/>
-    <col min="59" max="59" width="47.5703125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="65" max="66" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="102.42578125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="39.7109375" customWidth="1"/>
-    <col min="70" max="70" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="47.5546875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="65" max="66" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="102.44140625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="39.6640625" customWidth="1"/>
+    <col min="70" max="70" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="18" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="20" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:81" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
@@ -1288,10 +1336,10 @@
         <v>6</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>10</v>
@@ -1300,10 +1348,10 @@
         <v>11</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L1" s="10" t="s">
         <v>12</v>
@@ -1327,213 +1375,213 @@
         <v>18</v>
       </c>
       <c r="S1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="U1" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="V1" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="W1" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="W1" s="10" t="s">
-        <v>67</v>
-      </c>
       <c r="X1" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Z1" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="Z1" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>88</v>
-      </c>
       <c r="AB1" s="16" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="AC1" s="10" t="s">
         <v>18</v>
       </c>
       <c r="AD1" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE1" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="AH1" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AI1" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AJ1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AK1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL1" s="10" t="s">
+      <c r="AM1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AM1" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN1" s="10" t="s">
+      <c r="AO1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AO1" s="10" t="s">
+      <c r="AP1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="AP1" s="10" t="s">
-        <v>43</v>
-      </c>
       <c r="AQ1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AR1" s="10" t="s">
+      <c r="AS1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AS1" s="10" t="s">
+      <c r="AT1" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AT1" s="10" t="s">
-        <v>52</v>
-      </c>
       <c r="AU1" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AV1" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AW1" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX1" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="AX1" s="10" t="s">
+      <c r="AY1" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="AY1" s="10" t="s">
+      <c r="AZ1" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AZ1" s="10" t="s">
+      <c r="BA1" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="BA1" s="10" t="s">
+      <c r="BB1" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="BB1" s="10" t="s">
-        <v>99</v>
-      </c>
       <c r="BC1" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BD1" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="BE1" s="10" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="BF1" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BG1" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="BH1" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="BI1" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="BJ1" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="BK1" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="BL1" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="BM1" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="BN1" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="BO1" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="BP1" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="BQ1" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="BR1" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="BS1" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="BT1" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="BU1" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="BV1" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="BW1" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="BX1" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="BY1" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="BZ1" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="CA1" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="CB1" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="BI1" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="BJ1" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="BK1" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="BL1" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="BM1" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="BN1" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="BO1" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="BP1" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="BQ1" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="BR1" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="BS1" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="BT1" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="BU1" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="BV1" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="BW1" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="BX1" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="BY1" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="BZ1" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="CA1" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="CB1" s="10" t="s">
-        <v>232</v>
-      </c>
       <c r="CC1" s="10" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="2" spans="1:81" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>240</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>241</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1546,9 +1594,9 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:81" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="1"/>
       <c r="F3" s="1"/>
@@ -1564,33 +1612,33 @@
       <c r="P3" s="1"/>
       <c r="V3" s="5"/>
       <c r="W3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AW3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX3" t="s">
         <v>90</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AY3" t="s">
         <v>92</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="AZ3" t="s">
         <v>94</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BA3" t="s">
         <v>96</v>
       </c>
-      <c r="BA3" t="s">
-        <v>98</v>
-      </c>
       <c r="BB3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="BC3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:81" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1"/>
       <c r="F4" s="1"/>
@@ -1602,16 +1650,16 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P4" s="1">
         <v>2025</v>
       </c>
       <c r="Q4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R4">
         <v>123</v>
@@ -1619,35 +1667,35 @@
       <c r="V4" s="5"/>
       <c r="W4" s="3"/>
     </row>
-    <row r="5" spans="1:81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:81" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>240</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>241</v>
       </c>
       <c r="F5" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>179</v>
+        <v>250</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>180</v>
+        <v>236</v>
       </c>
       <c r="J5" s="21"/>
       <c r="K5" t="s">
-        <v>181</v>
-      </c>
-      <c r="L5" s="20">
-        <v>75163</v>
+        <v>176</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>251</v>
       </c>
       <c r="M5">
         <v>8500563032</v>
@@ -1658,36 +1706,38 @@
         <v>123</v>
       </c>
       <c r="BG5" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:81" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:81" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>181</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>71</v>
+        <v>239</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>19</v>
+        <v>237</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>19</v>
+        <v>238</v>
       </c>
       <c r="L6" s="1">
-        <v>79912</v>
+        <v>15014</v>
       </c>
       <c r="M6" s="1">
         <v>9998999999</v>
@@ -1696,15 +1746,15 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1713,52 +1763,52 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="S8" t="s">
+        <v>73</v>
+      </c>
+      <c r="T8" t="s">
+        <v>74</v>
+      </c>
+      <c r="U8" t="s">
         <v>75</v>
       </c>
-      <c r="T8" t="s">
+      <c r="V8" t="s">
         <v>76</v>
       </c>
-      <c r="U8" t="s">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s">
-        <v>78</v>
-      </c>
       <c r="AD8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF8">
         <v>123456</v>
       </c>
       <c r="AG8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AI8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:81" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -1778,9 +1828,9 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C10" s="1"/>
       <c r="F10" s="1"/>
@@ -1792,16 +1842,16 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="P10" s="1">
         <v>2025</v>
       </c>
       <c r="Q10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R10">
         <v>123</v>
@@ -1810,704 +1860,642 @@
       <c r="W10" s="3"/>
       <c r="AA10" s="7"/>
     </row>
-    <row r="11" spans="1:81" s="7" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:81" s="7" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="X11" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AA11"/>
       <c r="AK11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM11" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN11" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AL11" s="7" t="s">
+      <c r="AO11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP11" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="AM11" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AP11" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="AQ11" s="7">
         <v>27</v>
       </c>
       <c r="AR11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AS11" s="7" t="s">
+      <c r="AT11" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="AT11" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="AU11" s="7">
         <v>2</v>
       </c>
       <c r="AV11" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:81" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Y12" s="11" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="Z12" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:81" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>198</v>
-      </c>
-      <c r="Y13" s="11">
-        <v>1515</v>
-      </c>
-      <c r="Z13" s="11">
-        <v>1515</v>
-      </c>
-    </row>
-    <row r="14" spans="1:81" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="Y13" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z13" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="15" spans="1:81" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="Y14" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="Z14" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="16" spans="1:81" ht="90" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+      <c r="Y15" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="Z15" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:81" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:68" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="BD18" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="BE18" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="BF18" t="s">
         <v>107</v>
       </c>
-      <c r="BD16" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="BE16" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="BF16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>111</v>
-      </c>
-      <c r="N17" t="s">
-        <v>20</v>
-      </c>
-      <c r="O17" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="P17" s="2">
-        <v>2025</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>23</v>
-      </c>
-      <c r="R17" s="3">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:68" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="N18" t="s">
-        <v>105</v>
-      </c>
-      <c r="O18" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="P18" s="2">
-        <v>2025</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>114</v>
-      </c>
-      <c r="R18" s="3">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:68" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>113</v>
+    </row>
+    <row r="19" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>108</v>
       </c>
       <c r="N19" t="s">
-        <v>104</v>
-      </c>
-      <c r="O19" s="15" t="s">
-        <v>116</v>
+        <v>19</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="P19" s="2">
         <v>2025</v>
       </c>
       <c r="Q19" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="R19" s="3">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="20" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>117</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:68" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>109</v>
       </c>
       <c r="N20" t="s">
         <v>103</v>
       </c>
-      <c r="O20" s="11" t="s">
-        <v>120</v>
+      <c r="O20" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="P20" s="2">
         <v>2025</v>
       </c>
       <c r="Q20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R20" s="3">
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:68" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="N21" t="s">
+        <v>102</v>
+      </c>
+      <c r="O21" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="P21" s="2">
+        <v>2025</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>112</v>
+      </c>
+      <c r="R21" s="3">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>114</v>
+      </c>
+      <c r="N22" t="s">
+        <v>101</v>
+      </c>
+      <c r="O22" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="P22" s="2">
+        <v>2025</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>111</v>
+      </c>
+      <c r="R22" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>119</v>
+      </c>
+      <c r="O23" s="11"/>
+      <c r="BH23" t="s">
+        <v>220</v>
+      </c>
+      <c r="BI23" t="s">
+        <v>120</v>
+      </c>
+      <c r="BJ23" t="s">
+        <v>121</v>
+      </c>
+      <c r="BK23" t="s">
         <v>122</v>
       </c>
-      <c r="O21" s="11"/>
-      <c r="BH21" t="s">
-        <v>226</v>
-      </c>
-      <c r="BI21" t="s">
+      <c r="BL23" t="s">
         <v>123</v>
       </c>
-      <c r="BJ21" t="s">
-        <v>124</v>
-      </c>
-      <c r="BK21" t="s">
-        <v>125</v>
-      </c>
-      <c r="BL21" t="s">
+      <c r="BM23" t="s">
         <v>126</v>
       </c>
-      <c r="BM21" t="s">
-        <v>129</v>
-      </c>
-      <c r="BN21" t="s">
+      <c r="BN23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>128</v>
+      </c>
+      <c r="BO24" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>131</v>
+      </c>
+      <c r="BO25" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="26" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>132</v>
       </c>
-      <c r="BO22" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="23" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="BO26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>134</v>
+      </c>
+      <c r="BO27" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>135</v>
       </c>
-      <c r="BO23" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="BO28" t="s">
         <v>136</v>
       </c>
-      <c r="BO24" t="s">
+    </row>
+    <row r="29" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="25" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="BO29" t="s">
         <v>138</v>
       </c>
-      <c r="BO25" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="26" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    </row>
+    <row r="30" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>139</v>
       </c>
-      <c r="BO26" t="s">
+      <c r="D30" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" t="s">
+        <v>181</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="27" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>141</v>
-      </c>
-      <c r="BO27" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="28" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="BP30" t="s">
         <v>143</v>
       </c>
-      <c r="D28" t="s">
+    </row>
+    <row r="31" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" t="s">
         <v>145</v>
       </c>
-      <c r="E28" t="s">
-        <v>186</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BP28" t="s">
+      <c r="C31" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:68" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="29" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="BO32" t="s">
         <v>148</v>
       </c>
-      <c r="B29" t="s">
+    </row>
+    <row r="33" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>150</v>
+      </c>
+      <c r="BO33" t="s">
         <v>149</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="30" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    </row>
+    <row r="34" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>152</v>
+      </c>
+      <c r="BO34" t="s">
         <v>151</v>
       </c>
-      <c r="BO30" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="31" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>154</v>
-      </c>
-      <c r="BO31" t="s">
+    </row>
+    <row r="35" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="32" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>156</v>
-      </c>
-      <c r="BO32" t="s">
+      <c r="AB35" s="17" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB33" s="17" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="34" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>178</v>
-      </c>
-      <c r="BQ34" s="18" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="35" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>239</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" t="s">
-        <v>197</v>
-      </c>
-      <c r="E35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G35" t="s">
-        <v>69</v>
-      </c>
-      <c r="H35" t="s">
-        <v>168</v>
-      </c>
-      <c r="I35" t="s">
-        <v>165</v>
-      </c>
-      <c r="K35" t="s">
-        <v>240</v>
-      </c>
-      <c r="L35">
-        <v>72729</v>
-      </c>
-      <c r="M35" s="11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="36" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>162</v>
-      </c>
-      <c r="W36" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="37" spans="1:76" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="BQ36" s="18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="G37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H37" t="s">
+        <v>164</v>
+      </c>
+      <c r="I37" t="s">
+        <v>161</v>
+      </c>
+      <c r="K37" t="s">
+        <v>234</v>
+      </c>
+      <c r="L37">
+        <v>72729</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>158</v>
+      </c>
+      <c r="W38" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>165</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" t="s">
+        <v>192</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G39" t="s">
+        <v>68</v>
+      </c>
+      <c r="H39" t="s">
+        <v>164</v>
+      </c>
+      <c r="I39" t="s">
+        <v>161</v>
+      </c>
+      <c r="K39" t="s">
+        <v>162</v>
+      </c>
+      <c r="L39">
+        <v>19702</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>182</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>168</v>
       </c>
-      <c r="I37" t="s">
-        <v>165</v>
-      </c>
-      <c r="K37" t="s">
-        <v>166</v>
-      </c>
-      <c r="L37">
-        <v>19702</v>
-      </c>
-      <c r="M37" s="11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="38" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="W41" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>170</v>
+      </c>
+      <c r="D42" t="s">
+        <v>188</v>
+      </c>
+      <c r="E42" t="s">
+        <v>191</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G42" t="s">
+        <v>68</v>
+      </c>
+      <c r="H42" t="s">
+        <v>171</v>
+      </c>
+      <c r="I42" t="s">
+        <v>253</v>
+      </c>
+      <c r="K42" t="s">
+        <v>252</v>
+      </c>
+      <c r="L42" s="11">
+        <v>74058</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>179</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" t="s">
+        <v>189</v>
+      </c>
+      <c r="E43" t="s">
+        <v>190</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G43" t="s">
+        <v>68</v>
+      </c>
+      <c r="H43" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="I43" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="J43" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="K43" t="s">
+        <v>186</v>
+      </c>
+      <c r="L43" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="M43" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F38" s="1" t="s">
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="2"/>
+      <c r="AC43" s="3">
+        <v>123</v>
+      </c>
+      <c r="BG43" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="44" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BR44">
+        <v>399</v>
+      </c>
+      <c r="BS44" t="s">
+        <v>141</v>
+      </c>
+      <c r="BT44" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BU44" t="s">
+        <v>201</v>
+      </c>
+      <c r="BV44" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="BW44" t="s">
+        <v>203</v>
+      </c>
+      <c r="BX44" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="45" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>205</v>
+      </c>
+      <c r="D45" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="39" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="E45" t="s">
+        <v>191</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G45" t="s">
+        <v>68</v>
+      </c>
+      <c r="H45" t="s">
+        <v>171</v>
+      </c>
+      <c r="I45" t="s">
         <v>172</v>
       </c>
-      <c r="W39" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="40" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>174</v>
-      </c>
-      <c r="D40" t="s">
-        <v>193</v>
-      </c>
-      <c r="E40" t="s">
-        <v>196</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G40" t="s">
-        <v>69</v>
-      </c>
-      <c r="H40" t="s">
-        <v>175</v>
-      </c>
-      <c r="I40" t="s">
-        <v>176</v>
-      </c>
-      <c r="K40" t="s">
-        <v>177</v>
-      </c>
-      <c r="L40" s="11">
-        <v>74058</v>
-      </c>
-      <c r="M40" s="11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="41" spans="1:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>184</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" t="s">
-        <v>194</v>
-      </c>
-      <c r="E41" t="s">
-        <v>195</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G41" t="s">
-        <v>69</v>
-      </c>
-      <c r="H41" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="I41" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="J41" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="K41" t="s">
-        <v>191</v>
-      </c>
-      <c r="L41" s="20">
-        <v>99611</v>
-      </c>
-      <c r="M41" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y41" s="4"/>
-      <c r="Z41" s="2"/>
-      <c r="AC41" s="3">
-        <v>123</v>
-      </c>
-      <c r="BG41" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="42" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>199</v>
-      </c>
-      <c r="BR42">
-        <v>399</v>
-      </c>
-      <c r="BS42" t="s">
-        <v>145</v>
-      </c>
-      <c r="BT42" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BU42" t="s">
+      <c r="K45" t="s">
         <v>206</v>
-      </c>
-      <c r="BV42" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="BW42" t="s">
-        <v>208</v>
-      </c>
-      <c r="BX42" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="43" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>211</v>
-      </c>
-      <c r="D43" t="s">
-        <v>193</v>
-      </c>
-      <c r="E43" t="s">
-        <v>196</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G43" t="s">
-        <v>69</v>
-      </c>
-      <c r="H43" t="s">
-        <v>175</v>
-      </c>
-      <c r="I43" t="s">
-        <v>176</v>
-      </c>
-      <c r="K43" t="s">
-        <v>212</v>
-      </c>
-      <c r="L43" s="11">
-        <v>74058</v>
-      </c>
-      <c r="M43" s="11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="44" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>213</v>
-      </c>
-      <c r="D44" t="s">
-        <v>193</v>
-      </c>
-      <c r="E44" t="s">
-        <v>196</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G44" t="s">
-        <v>69</v>
-      </c>
-      <c r="H44" t="s">
-        <v>175</v>
-      </c>
-      <c r="I44" t="s">
-        <v>176</v>
-      </c>
-      <c r="K44" t="s">
-        <v>214</v>
-      </c>
-      <c r="L44" s="11">
-        <v>74058</v>
-      </c>
-      <c r="M44" s="11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="45" spans="1:76" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>215</v>
-      </c>
-      <c r="D45" t="s">
-        <v>193</v>
-      </c>
-      <c r="E45" t="s">
-        <v>196</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G45" t="s">
-        <v>69</v>
-      </c>
-      <c r="H45" t="s">
-        <v>175</v>
-      </c>
-      <c r="I45" t="s">
-        <v>176</v>
-      </c>
-      <c r="K45" t="s">
-        <v>216</v>
       </c>
       <c r="L45" s="11">
         <v>74058</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="46" spans="1:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>217</v>
-      </c>
-      <c r="C46" s="1"/>
+        <v>207</v>
+      </c>
       <c r="D46" t="s">
-        <v>7</v>
+        <v>188</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" t="s">
-        <v>225</v>
+        <v>191</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="G46" t="s">
-        <v>69</v>
-      </c>
-      <c r="H46" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="I46" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="J46" s="21"/>
+        <v>68</v>
+      </c>
+      <c r="H46" t="s">
+        <v>171</v>
+      </c>
+      <c r="I46" t="s">
+        <v>172</v>
+      </c>
       <c r="K46" t="s">
-        <v>212</v>
-      </c>
-      <c r="L46" s="20">
-        <v>75163</v>
-      </c>
-      <c r="M46">
-        <v>8500563032</v>
-      </c>
-      <c r="Y46" s="4"/>
-      <c r="Z46" s="2"/>
-      <c r="AC46" s="3">
-        <v>123</v>
-      </c>
-      <c r="BG46" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="47" spans="1:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+      <c r="L46" s="11">
+        <v>74058</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>218</v>
-      </c>
-      <c r="C47" s="1"/>
+        <v>209</v>
+      </c>
       <c r="D47" t="s">
-        <v>7</v>
+        <v>188</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" t="s">
-        <v>225</v>
+        <v>191</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="G47" t="s">
-        <v>69</v>
-      </c>
-      <c r="H47" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="I47" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="J47" s="21"/>
+        <v>68</v>
+      </c>
+      <c r="H47" t="s">
+        <v>171</v>
+      </c>
+      <c r="I47" t="s">
+        <v>172</v>
+      </c>
       <c r="K47" t="s">
-        <v>214</v>
-      </c>
-      <c r="L47" s="20">
-        <v>75163</v>
-      </c>
-      <c r="M47">
-        <v>8500563032</v>
-      </c>
-      <c r="Y47" s="4"/>
-      <c r="Z47" s="2"/>
-      <c r="AC47" s="3">
-        <v>123</v>
-      </c>
-      <c r="BG47" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="48" spans="1:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="L47" s="11">
+        <v>74058</v>
+      </c>
+      <c r="M47" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="1:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" t="s">
@@ -2516,24 +2504,24 @@
       <c r="E48" t="s">
         <v>8</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>225</v>
+      <c r="F48" t="s">
+        <v>219</v>
       </c>
       <c r="G48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H48" s="19" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="I48" s="19" t="s">
-        <v>180</v>
+        <v>254</v>
       </c>
       <c r="J48" s="21"/>
       <c r="K48" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="L48" s="20">
-        <v>75163</v>
+        <v>99702</v>
       </c>
       <c r="M48">
         <v>8500563032</v>
@@ -2544,55 +2532,140 @@
         <v>123</v>
       </c>
       <c r="BG48" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="49" spans="1:81" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="49" spans="1:81" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>212</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" t="s">
+        <v>219</v>
+      </c>
+      <c r="G49" t="s">
+        <v>68</v>
+      </c>
+      <c r="H49" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="I49" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="J49" s="21"/>
+      <c r="K49" t="s">
+        <v>208</v>
+      </c>
+      <c r="L49" s="20">
+        <v>96857</v>
+      </c>
+      <c r="M49">
+        <v>8500563032</v>
+      </c>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="2"/>
+      <c r="AC49" s="3">
+        <v>123</v>
+      </c>
+      <c r="BG49" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="50" spans="1:81" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>213</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G50" t="s">
+        <v>68</v>
+      </c>
+      <c r="H50" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="I50" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J50" s="21"/>
+      <c r="K50" t="s">
+        <v>210</v>
+      </c>
+      <c r="L50" s="20">
+        <v>75163</v>
+      </c>
+      <c r="M50">
+        <v>8500563032</v>
+      </c>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="2"/>
+      <c r="AC50" s="3">
+        <v>123</v>
+      </c>
+      <c r="BG50" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="51" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>223</v>
+      </c>
+      <c r="BY51" t="s">
+        <v>230</v>
+      </c>
+      <c r="BZ51" t="s">
         <v>229</v>
       </c>
-      <c r="BY49" t="s">
-        <v>236</v>
-      </c>
-      <c r="BZ49" t="s">
-        <v>235</v>
-      </c>
-      <c r="CA49" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="CB49" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="CC49">
+      <c r="CA51" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="CB51" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="CC51">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{0EE2B951-04E0-4C37-AD27-41ABE90F13C8}"/>
-    <hyperlink ref="C2" r:id="rId2" display="Rajkumar@1155" xr:uid="{1E2EF8D6-0728-4603-8801-14D9C148AAC7}"/>
+    <hyperlink ref="C2" r:id="rId2" display="drybar@123" xr:uid="{1E2EF8D6-0728-4603-8801-14D9C148AAC7}"/>
     <hyperlink ref="BG5" r:id="rId3" xr:uid="{7EAA2625-5DF5-4A43-BFD0-B64018446D5D}"/>
-    <hyperlink ref="F28" r:id="rId4" xr:uid="{85702DA2-6B99-4F4A-9AA2-9F1D91BC8E3A}"/>
-    <hyperlink ref="F38" r:id="rId5" xr:uid="{40C27E8C-3B81-4D20-A6BC-3DB1743540AE}"/>
-    <hyperlink ref="C38" r:id="rId6" display="drybar@1234" xr:uid="{BF124FBE-91BB-4F73-8DBB-84F5B8683E1F}"/>
-    <hyperlink ref="BG41" r:id="rId7" xr:uid="{88CA8FE1-1EE7-43F7-B68C-97F732683303}"/>
-    <hyperlink ref="F41" r:id="rId8" xr:uid="{1FC1E3B9-88CF-43FC-A071-AA48E7C05E78}"/>
-    <hyperlink ref="F40" r:id="rId9" display="yoga.manoj6@gmail.com" xr:uid="{115A8F90-5F25-49F7-B091-7E933F782B63}"/>
-    <hyperlink ref="BT42" r:id="rId10" xr:uid="{D521859E-FD3C-4036-902B-011CAFF82DC1}"/>
-    <hyperlink ref="BV42" r:id="rId11" xr:uid="{3CF69B76-2A0C-4F79-A3E3-ED222697DC52}"/>
-    <hyperlink ref="F43" r:id="rId12" display="yoga.manoj6@gmail.com" xr:uid="{9A1EC28A-A256-4B40-B2C7-1472DDDDFA8A}"/>
-    <hyperlink ref="F44" r:id="rId13" display="yoga.manoj6@gmail.com" xr:uid="{61095286-9BF8-473F-9D28-6346EED8AE04}"/>
-    <hyperlink ref="F45" r:id="rId14" display="yoga.manoj6@gmail.com" xr:uid="{B45D2FAE-E215-4BE1-9874-E325BAF9C7F4}"/>
-    <hyperlink ref="BG46" r:id="rId15" xr:uid="{14C25E77-F645-4DDA-8E89-5F05454FA784}"/>
-    <hyperlink ref="BG47" r:id="rId16" xr:uid="{6A156A81-D2AB-481C-AE1E-982B2AFF941D}"/>
-    <hyperlink ref="BG48" r:id="rId17" xr:uid="{6FF3B2A5-29F8-4063-8E70-87A8855AC718}"/>
-    <hyperlink ref="F37" r:id="rId18" xr:uid="{81F356DF-5BE2-4BA2-8CF2-EA86237D44D0}"/>
-    <hyperlink ref="F48" r:id="rId19" display="raikanti.prasad906@gmail.coma.manoj6@gmail.com" xr:uid="{3350012F-B83F-4459-920D-B43C2D9B639D}"/>
+    <hyperlink ref="F30" r:id="rId4" xr:uid="{85702DA2-6B99-4F4A-9AA2-9F1D91BC8E3A}"/>
+    <hyperlink ref="F40" r:id="rId5" xr:uid="{40C27E8C-3B81-4D20-A6BC-3DB1743540AE}"/>
+    <hyperlink ref="C40" r:id="rId6" display="drybar@1234" xr:uid="{BF124FBE-91BB-4F73-8DBB-84F5B8683E1F}"/>
+    <hyperlink ref="BG43" r:id="rId7" xr:uid="{88CA8FE1-1EE7-43F7-B68C-97F732683303}"/>
+    <hyperlink ref="F43" r:id="rId8" xr:uid="{1FC1E3B9-88CF-43FC-A071-AA48E7C05E78}"/>
+    <hyperlink ref="F42" r:id="rId9" display="yoga.manoj6@gmail.com" xr:uid="{115A8F90-5F25-49F7-B091-7E933F782B63}"/>
+    <hyperlink ref="BT44" r:id="rId10" xr:uid="{D521859E-FD3C-4036-902B-011CAFF82DC1}"/>
+    <hyperlink ref="BV44" r:id="rId11" xr:uid="{3CF69B76-2A0C-4F79-A3E3-ED222697DC52}"/>
+    <hyperlink ref="F45" r:id="rId12" display="yoga.manoj6@gmail.com" xr:uid="{9A1EC28A-A256-4B40-B2C7-1472DDDDFA8A}"/>
+    <hyperlink ref="F46" r:id="rId13" display="yoga.manoj6@gmail.com" xr:uid="{61095286-9BF8-473F-9D28-6346EED8AE04}"/>
+    <hyperlink ref="F47" r:id="rId14" display="yoga.manoj6@gmail.com" xr:uid="{B45D2FAE-E215-4BE1-9874-E325BAF9C7F4}"/>
+    <hyperlink ref="BG48" r:id="rId15" xr:uid="{14C25E77-F645-4DDA-8E89-5F05454FA784}"/>
+    <hyperlink ref="BG49" r:id="rId16" xr:uid="{6A156A81-D2AB-481C-AE1E-982B2AFF941D}"/>
+    <hyperlink ref="BG50" r:id="rId17" xr:uid="{6FF3B2A5-29F8-4063-8E70-87A8855AC718}"/>
+    <hyperlink ref="F39" r:id="rId18" xr:uid="{81F356DF-5BE2-4BA2-8CF2-EA86237D44D0}"/>
+    <hyperlink ref="F50" r:id="rId19" display="raikanti.prasad906@gmail.coma.manoj6@gmail.com" xr:uid="{3350012F-B83F-4459-920D-B43C2D9B639D}"/>
     <hyperlink ref="F2" r:id="rId20" xr:uid="{8664094E-880D-411A-9CED-16762BE15860}"/>
-    <hyperlink ref="C29" r:id="rId21" xr:uid="{CBE671E4-46B4-415B-8E4C-3A352D473E9F}"/>
-    <hyperlink ref="F35" r:id="rId22" xr:uid="{C228D363-CFA1-48C1-8328-0F96697D7CBE}"/>
+    <hyperlink ref="C31" r:id="rId21" xr:uid="{CBE671E4-46B4-415B-8E4C-3A352D473E9F}"/>
+    <hyperlink ref="F37" r:id="rId22" xr:uid="{C228D363-CFA1-48C1-8328-0F96697D7CBE}"/>
+    <hyperlink ref="F6" r:id="rId23" xr:uid="{483E9E5E-00DA-432B-8D87-00F6E882902B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId23"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/DryBar/DryBarTestData.xlsx
+++ b/src/test/resources/TestData/DryBar/DryBarTestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B22A8FF-9BEE-457F-B02D-6F152C241D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55C3A17-F90F-4A18-A5A5-AD9A5756A94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="264">
   <si>
     <t>UserName</t>
   </si>
@@ -509,9 +509,6 @@
     <t>Detox dry shampoo</t>
   </si>
   <si>
-    <t>Blow dryers</t>
-  </si>
-  <si>
     <t>Wilmington</t>
   </si>
   <si>
@@ -696,9 +693,6 @@
     <t>QA.Testing@gmail.com</t>
   </si>
   <si>
-    <t>Prasad@123</t>
-  </si>
-  <si>
     <t>NewProductDetails</t>
   </si>
   <si>
@@ -799,6 +793,33 @@
   </si>
   <si>
     <t>Schofield Barracks</t>
+  </si>
+  <si>
+    <t>19073-3972</t>
+  </si>
+  <si>
+    <t>Blow dryer Brush</t>
+  </si>
+  <si>
+    <t>Product_Name</t>
+  </si>
+  <si>
+    <t>lash blow out Mascara By IT Cosmetics</t>
+  </si>
+  <si>
+    <t>15%Couponcode</t>
+  </si>
+  <si>
+    <t>Prasad&amp;123</t>
+  </si>
+  <si>
+    <t>BUNDLE</t>
+  </si>
+  <si>
+    <t>FREECouponCode</t>
+  </si>
+  <si>
+    <t>FREE</t>
   </si>
 </sst>
 </file>
@@ -1242,84 +1263,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CC51"/>
+  <dimension ref="A1:CC54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="R7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="32.33203125" customWidth="1"/>
-    <col min="9" max="9" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.44140625" customWidth="1"/>
-    <col min="11" max="12" width="28.33203125" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="32.28515625" customWidth="1"/>
+    <col min="9" max="9" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.42578125" customWidth="1"/>
+    <col min="11" max="12" width="28.28515625" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" customWidth="1"/>
-    <col min="16" max="16" width="18.33203125" customWidth="1"/>
-    <col min="17" max="17" width="16.109375" customWidth="1"/>
-    <col min="18" max="18" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.109375" customWidth="1"/>
-    <col min="20" max="20" width="26.44140625" customWidth="1"/>
-    <col min="21" max="21" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="61.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="27.33203125" customWidth="1"/>
-    <col min="26" max="26" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="60.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" customWidth="1"/>
+    <col min="16" max="16" width="18.28515625" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.140625" customWidth="1"/>
+    <col min="20" max="20" width="26.42578125" customWidth="1"/>
+    <col min="21" max="21" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="27.28515625" customWidth="1"/>
+    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="60.7109375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.6640625" customWidth="1"/>
-    <col min="38" max="38" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="21.109375" customWidth="1"/>
-    <col min="40" max="40" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="27.33203125" customWidth="1"/>
+    <col min="30" max="30" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.7109375" customWidth="1"/>
+    <col min="38" max="38" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="21.140625" customWidth="1"/>
+    <col min="40" max="40" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="27.28515625" customWidth="1"/>
     <col min="50" max="50" width="24" customWidth="1"/>
-    <col min="51" max="51" width="17.5546875" customWidth="1"/>
-    <col min="52" max="52" width="21.109375" customWidth="1"/>
-    <col min="53" max="53" width="13.33203125" customWidth="1"/>
-    <col min="54" max="54" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="33.44140625" customWidth="1"/>
-    <col min="56" max="57" width="29.44140625" customWidth="1"/>
+    <col min="51" max="51" width="17.5703125" customWidth="1"/>
+    <col min="52" max="52" width="21.140625" customWidth="1"/>
+    <col min="53" max="53" width="13.28515625" customWidth="1"/>
+    <col min="54" max="54" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="33.42578125" customWidth="1"/>
+    <col min="56" max="57" width="29.42578125" customWidth="1"/>
     <col min="58" max="58" width="26" customWidth="1"/>
-    <col min="59" max="59" width="47.5546875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="65" max="66" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="102.44140625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="39.6640625" customWidth="1"/>
-    <col min="70" max="70" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="65" max="66" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="102.42578125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="39.7109375" customWidth="1"/>
+    <col min="70" max="70" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="18" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="20" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:81" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
@@ -1348,7 +1369,7 @@
         <v>11</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K1" s="10" t="s">
         <v>20</v>
@@ -1489,7 +1510,7 @@
         <v>106</v>
       </c>
       <c r="BE1" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BF1" s="10" t="s">
         <v>39</v>
@@ -1498,7 +1519,7 @@
         <v>118</v>
       </c>
       <c r="BH1" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="BI1" s="10" t="s">
         <v>120</v>
@@ -1528,60 +1549,60 @@
         <v>156</v>
       </c>
       <c r="BR1" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="BS1" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="BS1" s="10" t="s">
+      <c r="BT1" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="BT1" s="10" t="s">
+      <c r="BU1" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="BU1" s="10" t="s">
+      <c r="BV1" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="BV1" s="10" t="s">
+      <c r="BW1" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="BW1" s="10" t="s">
-        <v>200</v>
-      </c>
       <c r="BX1" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BY1" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="BZ1" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="CA1" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="CB1" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="CA1" s="10" t="s">
+      <c r="CC1" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="CB1" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="CC1" s="10" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:81" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>146</v>
       </c>
       <c r="D2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1594,7 +1615,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:81" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -1612,7 +1633,7 @@
       <c r="P3" s="1"/>
       <c r="V3" s="5"/>
       <c r="W3" t="s">
-        <v>160</v>
+        <v>256</v>
       </c>
       <c r="AW3" t="s">
         <v>88</v>
@@ -1636,9 +1657,9 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>257</v>
       </c>
       <c r="C4" s="1"/>
       <c r="F4" s="1"/>
@@ -1649,993 +1670,1034 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="V4" s="5"/>
+      <c r="W4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O5" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P5" s="1">
         <v>2025</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q5" t="s">
         <v>22</v>
       </c>
-      <c r="R4">
+      <c r="R5">
         <v>123</v>
       </c>
-      <c r="V4" s="5"/>
-      <c r="W4" s="3"/>
-    </row>
-    <row r="5" spans="1:81" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="V5" s="5"/>
+      <c r="W5" s="3"/>
+    </row>
+    <row r="6" spans="1:81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>67</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" t="s">
-        <v>240</v>
-      </c>
-      <c r="E5" t="s">
-        <v>241</v>
-      </c>
-      <c r="F5" t="s">
-        <v>219</v>
-      </c>
-      <c r="G5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="J5" s="21"/>
-      <c r="K5" t="s">
-        <v>176</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="M5">
-        <v>8500563032</v>
-      </c>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="2"/>
-      <c r="AC5" s="3">
-        <v>123</v>
-      </c>
-      <c r="BG5" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:81" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>69</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" t="s">
-        <v>141</v>
+        <v>238</v>
       </c>
       <c r="E6" t="s">
-        <v>181</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>221</v>
+        <v>239</v>
+      </c>
+      <c r="F6" t="s">
+        <v>218</v>
       </c>
       <c r="G6" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="H6" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" t="s">
+        <v>175</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="M6">
+        <v>8500563032</v>
+      </c>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="2"/>
+      <c r="AC6" s="3">
+        <v>123</v>
+      </c>
+      <c r="BG6" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:81" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="L6" s="1">
-        <v>15014</v>
-      </c>
-      <c r="M6" s="1">
+      <c r="I7" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="M7" s="1">
         <v>9998999999</v>
       </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="S8" t="s">
-        <v>73</v>
-      </c>
-      <c r="T8" t="s">
-        <v>74</v>
-      </c>
-      <c r="U8" t="s">
-        <v>75</v>
-      </c>
-      <c r="V8" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF8">
-        <v>123456</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>8</v>
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="S9" t="s">
+        <v>73</v>
+      </c>
+      <c r="T9" t="s">
+        <v>74</v>
+      </c>
+      <c r="U9" t="s">
+        <v>75</v>
+      </c>
+      <c r="V9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF9">
+        <v>123456</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="F10" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="O11" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P11" s="1">
         <v>2025</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q11" t="s">
         <v>22</v>
       </c>
-      <c r="R10">
+      <c r="R11">
         <v>123</v>
       </c>
-      <c r="V10" s="5"/>
-      <c r="W10" s="3"/>
-      <c r="AA10" s="7"/>
-    </row>
-    <row r="11" spans="1:81" s="7" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="V11" s="5"/>
+      <c r="W11" s="3"/>
+      <c r="AA11" s="7"/>
+    </row>
+    <row r="12" spans="1:81" s="7" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="X11" s="7" t="s">
+      <c r="X12" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="AA11"/>
-      <c r="AK11" s="7" t="s">
+      <c r="AA12"/>
+      <c r="AK12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AL11" s="7" t="s">
+      <c r="AL12" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="AM11" s="8" t="s">
+      <c r="AM12" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="AN11" s="7" t="s">
+      <c r="AN12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="AO11" s="7" t="s">
+      <c r="AO12" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AP11" s="7" t="s">
+      <c r="AP12" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AQ11" s="7">
+      <c r="AQ12" s="7">
         <v>27</v>
       </c>
-      <c r="AR11" s="7" t="s">
+      <c r="AR12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="AS11" s="7" t="s">
+      <c r="AS12" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="AT11" s="7" t="s">
+      <c r="AT12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="AU11" s="7">
+      <c r="AU12" s="7">
         <v>2</v>
       </c>
-      <c r="AV11" s="7" t="s">
+      <c r="AV12" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="13" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>83</v>
       </c>
-      <c r="Y12" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="Z12" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>193</v>
-      </c>
       <c r="Y13" s="11" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="Z13" s="11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>245</v>
+        <v>192</v>
       </c>
       <c r="Y14" s="11" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="Z14" s="11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="Y15" s="11" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Z15" s="11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:81" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y16" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z16" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>86</v>
       </c>
-      <c r="AA16" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="17" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="AA19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>165</v>
+      </c>
+      <c r="AA20" t="s">
         <v>166</v>
       </c>
-      <c r="AA17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="18" spans="1:68" ht="316.8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    </row>
+    <row r="21" spans="1:67" ht="360" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>105</v>
       </c>
-      <c r="BD18" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="BE18" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="BF18" t="s">
+      <c r="BD21" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="BE21" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="BF21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="22" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>108</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N22" t="s">
         <v>19</v>
       </c>
-      <c r="O19" s="14" t="s">
+      <c r="O22" s="14" t="s">
         <v>78</v>
-      </c>
-      <c r="P19" s="2">
-        <v>2025</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>22</v>
-      </c>
-      <c r="R19" s="3">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:68" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="N20" t="s">
-        <v>103</v>
-      </c>
-      <c r="O20" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="P20" s="2">
-        <v>2025</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>111</v>
-      </c>
-      <c r="R20" s="3">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:68" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="N21" t="s">
-        <v>102</v>
-      </c>
-      <c r="O21" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="P21" s="2">
-        <v>2025</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>112</v>
-      </c>
-      <c r="R21" s="3">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="22" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>114</v>
-      </c>
-      <c r="N22" t="s">
-        <v>101</v>
-      </c>
-      <c r="O22" s="11" t="s">
-        <v>117</v>
       </c>
       <c r="P22" s="2">
         <v>2025</v>
       </c>
       <c r="Q22" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="R22" s="3">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="23" spans="1:67" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="N23" t="s">
+        <v>103</v>
+      </c>
+      <c r="O23" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="P23" s="2">
+        <v>2025</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>111</v>
+      </c>
+      <c r="R23" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:67" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="N24" t="s">
+        <v>102</v>
+      </c>
+      <c r="O24" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="P24" s="2">
+        <v>2025</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>112</v>
+      </c>
+      <c r="R24" s="3">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>114</v>
+      </c>
+      <c r="N25" t="s">
+        <v>101</v>
+      </c>
+      <c r="O25" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="P25" s="2">
+        <v>2025</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>111</v>
+      </c>
+      <c r="R25" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>119</v>
       </c>
-      <c r="O23" s="11"/>
-      <c r="BH23" t="s">
-        <v>220</v>
-      </c>
-      <c r="BI23" t="s">
+      <c r="O26" s="11"/>
+      <c r="BH26" t="s">
+        <v>219</v>
+      </c>
+      <c r="BI26" t="s">
         <v>120</v>
       </c>
-      <c r="BJ23" t="s">
+      <c r="BJ26" t="s">
         <v>121</v>
       </c>
-      <c r="BK23" t="s">
+      <c r="BK26" t="s">
         <v>122</v>
       </c>
-      <c r="BL23" t="s">
+      <c r="BL26" t="s">
         <v>123</v>
       </c>
-      <c r="BM23" t="s">
+      <c r="BM26" t="s">
         <v>126</v>
       </c>
-      <c r="BN23" t="s">
+      <c r="BN26" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="27" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>128</v>
       </c>
-      <c r="BO24" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="25" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="BO27" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>131</v>
       </c>
-      <c r="BO25" t="s">
+      <c r="BO28" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="26" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="29" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>132</v>
       </c>
-      <c r="BO26" t="s">
+      <c r="BO29" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="30" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>134</v>
       </c>
-      <c r="BO27" t="s">
+      <c r="BO30" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>135</v>
+      </c>
+      <c r="BO31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>137</v>
+      </c>
+      <c r="BO32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33" t="s">
+        <v>141</v>
+      </c>
+      <c r="E33" t="s">
+        <v>180</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BP33" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="35" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>147</v>
+      </c>
+      <c r="BO35" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>150</v>
+      </c>
+      <c r="BO36" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>152</v>
+      </c>
+      <c r="BO37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB38" s="17" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:76" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>172</v>
+      </c>
+      <c r="BQ39" s="18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>231</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" t="s">
+        <v>191</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="28" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>135</v>
-      </c>
-      <c r="BO28" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="29" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>137</v>
-      </c>
-      <c r="BO29" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="30" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>139</v>
-      </c>
-      <c r="D30" t="s">
-        <v>141</v>
-      </c>
-      <c r="E30" t="s">
-        <v>181</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BP30" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="31" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>144</v>
-      </c>
-      <c r="B31" t="s">
-        <v>145</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="32" spans="1:68" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>147</v>
-      </c>
-      <c r="BO32" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="33" spans="1:76" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>150</v>
-      </c>
-      <c r="BO33" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="34" spans="1:76" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>152</v>
-      </c>
-      <c r="BO34" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="35" spans="1:76" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB35" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="36" spans="1:76" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>173</v>
-      </c>
-      <c r="BQ36" s="18" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="37" spans="1:76" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>233</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" t="s">
-        <v>192</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="G40" t="s">
+        <v>68</v>
+      </c>
+      <c r="H40" t="s">
+        <v>163</v>
+      </c>
+      <c r="I40" t="s">
+        <v>160</v>
+      </c>
+      <c r="K40" t="s">
+        <v>232</v>
+      </c>
+      <c r="L40">
+        <v>72729</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>158</v>
+      </c>
+      <c r="W41" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" t="s">
+        <v>191</v>
+      </c>
+      <c r="E42" t="s">
         <v>8</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G37" t="s">
-        <v>68</v>
-      </c>
-      <c r="H37" t="s">
-        <v>164</v>
-      </c>
-      <c r="I37" t="s">
-        <v>161</v>
-      </c>
-      <c r="K37" t="s">
-        <v>234</v>
-      </c>
-      <c r="L37">
-        <v>72729</v>
-      </c>
-      <c r="M37" s="11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="38" spans="1:76" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>158</v>
-      </c>
-      <c r="W38" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="39" spans="1:76" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>165</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" t="s">
-        <v>192</v>
-      </c>
-      <c r="E39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G39" t="s">
-        <v>68</v>
-      </c>
-      <c r="H39" t="s">
-        <v>164</v>
-      </c>
-      <c r="I39" t="s">
-        <v>161</v>
-      </c>
-      <c r="K39" t="s">
-        <v>162</v>
-      </c>
-      <c r="L39">
-        <v>19702</v>
-      </c>
-      <c r="M39" s="11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="40" spans="1:76" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>182</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="41" spans="1:76" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>168</v>
-      </c>
-      <c r="W41" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="42" spans="1:76" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>170</v>
-      </c>
-      <c r="D42" t="s">
-        <v>188</v>
-      </c>
-      <c r="E42" t="s">
-        <v>191</v>
-      </c>
       <c r="F42" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G42" t="s">
         <v>68</v>
       </c>
       <c r="H42" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="I42" t="s">
-        <v>253</v>
+        <v>160</v>
       </c>
       <c r="K42" t="s">
-        <v>252</v>
-      </c>
-      <c r="L42" s="11">
-        <v>74058</v>
+        <v>161</v>
+      </c>
+      <c r="L42">
+        <v>19702</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="43" spans="1:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>179</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" t="s">
-        <v>189</v>
-      </c>
-      <c r="E43" t="s">
+        <v>181</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="44" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>167</v>
+      </c>
+      <c r="W44" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:76" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>169</v>
+      </c>
+      <c r="D45" t="s">
+        <v>187</v>
+      </c>
+      <c r="E45" t="s">
         <v>190</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G43" t="s">
-        <v>68</v>
-      </c>
-      <c r="H43" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="I43" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="J43" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="K43" t="s">
-        <v>186</v>
-      </c>
-      <c r="L43" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="M43" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y43" s="4"/>
-      <c r="Z43" s="2"/>
-      <c r="AC43" s="3">
-        <v>123</v>
-      </c>
-      <c r="BG43" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="44" spans="1:76" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>194</v>
-      </c>
-      <c r="BR44">
-        <v>399</v>
-      </c>
-      <c r="BS44" t="s">
-        <v>141</v>
-      </c>
-      <c r="BT44" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="BU44" t="s">
-        <v>201</v>
-      </c>
-      <c r="BV44" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="BW44" t="s">
-        <v>203</v>
-      </c>
-      <c r="BX44" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="45" spans="1:76" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>205</v>
-      </c>
-      <c r="D45" t="s">
-        <v>188</v>
-      </c>
-      <c r="E45" t="s">
-        <v>191</v>
-      </c>
       <c r="F45" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G45" t="s">
         <v>68</v>
       </c>
       <c r="H45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I45" t="s">
-        <v>172</v>
+        <v>251</v>
       </c>
       <c r="K45" t="s">
-        <v>206</v>
+        <v>250</v>
       </c>
       <c r="L45" s="11">
         <v>74058</v>
       </c>
       <c r="M45" s="11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="46" spans="1:76" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>207</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="C46" s="1"/>
       <c r="D46" t="s">
         <v>188</v>
       </c>
       <c r="E46" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G46" t="s">
         <v>68</v>
       </c>
-      <c r="H46" t="s">
-        <v>171</v>
-      </c>
-      <c r="I46" t="s">
-        <v>172</v>
+      <c r="H46" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="J46" s="19" t="s">
+        <v>179</v>
       </c>
       <c r="K46" t="s">
-        <v>208</v>
-      </c>
-      <c r="L46" s="11">
-        <v>74058</v>
+        <v>185</v>
+      </c>
+      <c r="L46" s="20" t="s">
+        <v>240</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="47" spans="1:76" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="2"/>
+      <c r="AC46" s="3">
+        <v>123</v>
+      </c>
+      <c r="BG46" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="47" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>209</v>
-      </c>
-      <c r="D47" t="s">
-        <v>188</v>
-      </c>
-      <c r="E47" t="s">
-        <v>191</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G47" t="s">
-        <v>68</v>
-      </c>
-      <c r="H47" t="s">
-        <v>171</v>
-      </c>
-      <c r="I47" t="s">
-        <v>172</v>
-      </c>
-      <c r="K47" t="s">
-        <v>210</v>
-      </c>
-      <c r="L47" s="11">
-        <v>74058</v>
-      </c>
-      <c r="M47" s="11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="48" spans="1:76" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+      <c r="BR47">
+        <v>399</v>
+      </c>
+      <c r="BS47" t="s">
+        <v>141</v>
+      </c>
+      <c r="BT47" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BU47" t="s">
+        <v>200</v>
+      </c>
+      <c r="BV47" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="BW47" t="s">
+        <v>202</v>
+      </c>
+      <c r="BX47" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="48" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>211</v>
-      </c>
-      <c r="C48" s="1"/>
+        <v>204</v>
+      </c>
       <c r="D48" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" t="s">
-        <v>219</v>
+        <v>190</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="G48" t="s">
         <v>68</v>
       </c>
-      <c r="H48" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="I48" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="J48" s="21"/>
+      <c r="H48" t="s">
+        <v>170</v>
+      </c>
+      <c r="I48" t="s">
+        <v>171</v>
+      </c>
       <c r="K48" t="s">
+        <v>205</v>
+      </c>
+      <c r="L48" s="11">
+        <v>74058</v>
+      </c>
+      <c r="M48" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>206</v>
       </c>
-      <c r="L48" s="20">
-        <v>99702</v>
-      </c>
-      <c r="M48">
-        <v>8500563032</v>
-      </c>
-      <c r="Y48" s="4"/>
-      <c r="Z48" s="2"/>
-      <c r="AC48" s="3">
-        <v>123</v>
-      </c>
-      <c r="BG48" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="49" spans="1:81" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>212</v>
-      </c>
-      <c r="C49" s="1"/>
       <c r="D49" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" t="s">
-        <v>219</v>
+        <v>190</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>218</v>
       </c>
       <c r="G49" t="s">
         <v>68</v>
       </c>
-      <c r="H49" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="I49" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="J49" s="21"/>
+      <c r="H49" t="s">
+        <v>170</v>
+      </c>
+      <c r="I49" t="s">
+        <v>171</v>
+      </c>
       <c r="K49" t="s">
+        <v>207</v>
+      </c>
+      <c r="L49" s="11">
+        <v>74058</v>
+      </c>
+      <c r="M49" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>208</v>
       </c>
-      <c r="L49" s="20">
-        <v>96857</v>
-      </c>
-      <c r="M49">
-        <v>8500563032</v>
-      </c>
-      <c r="Y49" s="4"/>
-      <c r="Z49" s="2"/>
-      <c r="AC49" s="3">
-        <v>123</v>
-      </c>
-      <c r="BG49" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="50" spans="1:81" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>213</v>
-      </c>
-      <c r="C50" s="1"/>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G50" t="s">
         <v>68</v>
       </c>
-      <c r="H50" s="19" t="s">
+      <c r="H50" t="s">
+        <v>170</v>
+      </c>
+      <c r="I50" t="s">
+        <v>171</v>
+      </c>
+      <c r="K50" t="s">
+        <v>209</v>
+      </c>
+      <c r="L50" s="11">
+        <v>74058</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>210</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" t="s">
+        <v>218</v>
+      </c>
+      <c r="G51" t="s">
+        <v>68</v>
+      </c>
+      <c r="H51" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="I51" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="J51" s="21"/>
+      <c r="K51" t="s">
+        <v>205</v>
+      </c>
+      <c r="L51" s="20">
+        <v>99702</v>
+      </c>
+      <c r="M51">
+        <v>8500563032</v>
+      </c>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="2"/>
+      <c r="AC51" s="3">
+        <v>123</v>
+      </c>
+      <c r="BG51" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="52" spans="1:81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>211</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" t="s">
+        <v>218</v>
+      </c>
+      <c r="G52" t="s">
+        <v>68</v>
+      </c>
+      <c r="H52" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="I52" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="J52" s="21"/>
+      <c r="K52" t="s">
+        <v>207</v>
+      </c>
+      <c r="L52" s="20">
+        <v>96857</v>
+      </c>
+      <c r="M52">
+        <v>8500563032</v>
+      </c>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="2"/>
+      <c r="AC52" s="3">
+        <v>123</v>
+      </c>
+      <c r="BG52" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="53" spans="1:81" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>212</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G53" t="s">
+        <v>68</v>
+      </c>
+      <c r="H53" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="I53" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="I50" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="J50" s="21"/>
-      <c r="K50" t="s">
-        <v>210</v>
-      </c>
-      <c r="L50" s="20">
+      <c r="J53" s="21"/>
+      <c r="K53" t="s">
+        <v>209</v>
+      </c>
+      <c r="L53" s="20">
         <v>75163</v>
       </c>
-      <c r="M50">
+      <c r="M53">
         <v>8500563032</v>
       </c>
-      <c r="Y50" s="4"/>
-      <c r="Z50" s="2"/>
-      <c r="AC50" s="3">
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="2"/>
+      <c r="AC53" s="3">
         <v>123</v>
       </c>
-      <c r="BG50" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="51" spans="1:81" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>223</v>
-      </c>
-      <c r="BY51" t="s">
+      <c r="BG53" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="54" spans="1:81" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>221</v>
+      </c>
+      <c r="BY54" t="s">
+        <v>228</v>
+      </c>
+      <c r="BZ54" t="s">
+        <v>227</v>
+      </c>
+      <c r="CA54" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="BZ51" t="s">
-        <v>229</v>
-      </c>
-      <c r="CA51" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="CB51" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="CC51">
+      <c r="CB54" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="CC54">
         <v>100</v>
       </c>
     </row>
@@ -2643,27 +2705,27 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{0EE2B951-04E0-4C37-AD27-41ABE90F13C8}"/>
     <hyperlink ref="C2" r:id="rId2" display="drybar@123" xr:uid="{1E2EF8D6-0728-4603-8801-14D9C148AAC7}"/>
-    <hyperlink ref="BG5" r:id="rId3" xr:uid="{7EAA2625-5DF5-4A43-BFD0-B64018446D5D}"/>
-    <hyperlink ref="F30" r:id="rId4" xr:uid="{85702DA2-6B99-4F4A-9AA2-9F1D91BC8E3A}"/>
-    <hyperlink ref="F40" r:id="rId5" xr:uid="{40C27E8C-3B81-4D20-A6BC-3DB1743540AE}"/>
-    <hyperlink ref="C40" r:id="rId6" display="drybar@1234" xr:uid="{BF124FBE-91BB-4F73-8DBB-84F5B8683E1F}"/>
-    <hyperlink ref="BG43" r:id="rId7" xr:uid="{88CA8FE1-1EE7-43F7-B68C-97F732683303}"/>
-    <hyperlink ref="F43" r:id="rId8" xr:uid="{1FC1E3B9-88CF-43FC-A071-AA48E7C05E78}"/>
-    <hyperlink ref="F42" r:id="rId9" display="yoga.manoj6@gmail.com" xr:uid="{115A8F90-5F25-49F7-B091-7E933F782B63}"/>
-    <hyperlink ref="BT44" r:id="rId10" xr:uid="{D521859E-FD3C-4036-902B-011CAFF82DC1}"/>
-    <hyperlink ref="BV44" r:id="rId11" xr:uid="{3CF69B76-2A0C-4F79-A3E3-ED222697DC52}"/>
-    <hyperlink ref="F45" r:id="rId12" display="yoga.manoj6@gmail.com" xr:uid="{9A1EC28A-A256-4B40-B2C7-1472DDDDFA8A}"/>
-    <hyperlink ref="F46" r:id="rId13" display="yoga.manoj6@gmail.com" xr:uid="{61095286-9BF8-473F-9D28-6346EED8AE04}"/>
-    <hyperlink ref="F47" r:id="rId14" display="yoga.manoj6@gmail.com" xr:uid="{B45D2FAE-E215-4BE1-9874-E325BAF9C7F4}"/>
-    <hyperlink ref="BG48" r:id="rId15" xr:uid="{14C25E77-F645-4DDA-8E89-5F05454FA784}"/>
-    <hyperlink ref="BG49" r:id="rId16" xr:uid="{6A156A81-D2AB-481C-AE1E-982B2AFF941D}"/>
-    <hyperlink ref="BG50" r:id="rId17" xr:uid="{6FF3B2A5-29F8-4063-8E70-87A8855AC718}"/>
-    <hyperlink ref="F39" r:id="rId18" xr:uid="{81F356DF-5BE2-4BA2-8CF2-EA86237D44D0}"/>
-    <hyperlink ref="F50" r:id="rId19" display="raikanti.prasad906@gmail.coma.manoj6@gmail.com" xr:uid="{3350012F-B83F-4459-920D-B43C2D9B639D}"/>
+    <hyperlink ref="BG6" r:id="rId3" xr:uid="{7EAA2625-5DF5-4A43-BFD0-B64018446D5D}"/>
+    <hyperlink ref="F33" r:id="rId4" xr:uid="{85702DA2-6B99-4F4A-9AA2-9F1D91BC8E3A}"/>
+    <hyperlink ref="F43" r:id="rId5" xr:uid="{40C27E8C-3B81-4D20-A6BC-3DB1743540AE}"/>
+    <hyperlink ref="C43" r:id="rId6" display="drybar@1234" xr:uid="{BF124FBE-91BB-4F73-8DBB-84F5B8683E1F}"/>
+    <hyperlink ref="BG46" r:id="rId7" xr:uid="{88CA8FE1-1EE7-43F7-B68C-97F732683303}"/>
+    <hyperlink ref="F46" r:id="rId8" xr:uid="{1FC1E3B9-88CF-43FC-A071-AA48E7C05E78}"/>
+    <hyperlink ref="F45" r:id="rId9" display="yoga.manoj6@gmail.com" xr:uid="{115A8F90-5F25-49F7-B091-7E933F782B63}"/>
+    <hyperlink ref="BT47" r:id="rId10" xr:uid="{D521859E-FD3C-4036-902B-011CAFF82DC1}"/>
+    <hyperlink ref="BV47" r:id="rId11" xr:uid="{3CF69B76-2A0C-4F79-A3E3-ED222697DC52}"/>
+    <hyperlink ref="F48" r:id="rId12" display="yoga.manoj6@gmail.com" xr:uid="{9A1EC28A-A256-4B40-B2C7-1472DDDDFA8A}"/>
+    <hyperlink ref="F49" r:id="rId13" display="yoga.manoj6@gmail.com" xr:uid="{61095286-9BF8-473F-9D28-6346EED8AE04}"/>
+    <hyperlink ref="F50" r:id="rId14" display="yoga.manoj6@gmail.com" xr:uid="{B45D2FAE-E215-4BE1-9874-E325BAF9C7F4}"/>
+    <hyperlink ref="BG51" r:id="rId15" xr:uid="{14C25E77-F645-4DDA-8E89-5F05454FA784}"/>
+    <hyperlink ref="BG52" r:id="rId16" xr:uid="{6A156A81-D2AB-481C-AE1E-982B2AFF941D}"/>
+    <hyperlink ref="BG53" r:id="rId17" xr:uid="{6FF3B2A5-29F8-4063-8E70-87A8855AC718}"/>
+    <hyperlink ref="F42" r:id="rId18" xr:uid="{81F356DF-5BE2-4BA2-8CF2-EA86237D44D0}"/>
+    <hyperlink ref="F53" r:id="rId19" display="raikanti.prasad906@gmail.coma.manoj6@gmail.com" xr:uid="{3350012F-B83F-4459-920D-B43C2D9B639D}"/>
     <hyperlink ref="F2" r:id="rId20" xr:uid="{8664094E-880D-411A-9CED-16762BE15860}"/>
-    <hyperlink ref="C31" r:id="rId21" xr:uid="{CBE671E4-46B4-415B-8E4C-3A352D473E9F}"/>
-    <hyperlink ref="F37" r:id="rId22" xr:uid="{C228D363-CFA1-48C1-8328-0F96697D7CBE}"/>
-    <hyperlink ref="F6" r:id="rId23" xr:uid="{483E9E5E-00DA-432B-8D87-00F6E882902B}"/>
+    <hyperlink ref="C34" r:id="rId21" display="Prasad@123" xr:uid="{CBE671E4-46B4-415B-8E4C-3A352D473E9F}"/>
+    <hyperlink ref="F40" r:id="rId22" xr:uid="{C228D363-CFA1-48C1-8328-0F96697D7CBE}"/>
+    <hyperlink ref="F7" r:id="rId23" xr:uid="{483E9E5E-00DA-432B-8D87-00F6E882902B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId24"/>
